--- a/kerntabellen/gemeente_streekwerking.xlsx
+++ b/kerntabellen/gemeente_streekwerking.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\gebiedsniveaus\kerntabellen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A098CF35-26D5-4834-9DE8-A0C86DF12EF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{923BBDCC-9A99-4DA9-AA16-AF5EAB43E3CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-4065" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="913" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="913" uniqueCount="360">
   <si>
     <t>Name gemeente</t>
   </si>
@@ -1116,6 +1116,9 @@
   </si>
   <si>
     <t>sw41</t>
+  </si>
+  <si>
+    <t>sw99</t>
   </si>
 </sst>
 </file>
@@ -1485,8 +1488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D304"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A211" workbookViewId="0">
-      <selection activeCell="C230" sqref="C230"/>
+    <sheetView tabSelected="1" topLeftCell="A292" workbookViewId="0">
+      <selection activeCell="C307" sqref="C307"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5730,7 +5733,7 @@
         <v>309</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>311</v>
+        <v>359</v>
       </c>
       <c r="D303" s="1" t="s">
         <v>309</v>

--- a/kerntabellen/gemeente_streekwerking.xlsx
+++ b/kerntabellen/gemeente_streekwerking.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\gebiedsniveaus\kerntabellen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gebiedsniveaus_NIEUW\kerntabellen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{923BBDCC-9A99-4DA9-AA16-AF5EAB43E3CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{774A7206-DB90-443B-9C4D-9BD58694ACF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-4065" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Blad1" sheetId="1" r:id="rId1"/>
+    <sheet name="Blad1" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Blad1!$A$1:$D$302</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Blad1!$A$1:$D$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="913" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="343">
   <si>
     <t>Name gemeente</t>
   </si>
@@ -143,15 +143,9 @@
     <t>Bever</t>
   </si>
   <si>
-    <t>Beveren</t>
-  </si>
-  <si>
     <t>Bierbeek</t>
   </si>
   <si>
-    <t>Bilzen</t>
-  </si>
-  <si>
     <t>Blankenberge</t>
   </si>
   <si>
@@ -170,15 +164,9 @@
     <t>Boortmeerbeek</t>
   </si>
   <si>
-    <t>Borgloon</t>
-  </si>
-  <si>
     <t>Bornem</t>
   </si>
   <si>
-    <t>Borsbeek</t>
-  </si>
-  <si>
     <t>Boutersem</t>
   </si>
   <si>
@@ -212,9 +200,6 @@
     <t>De Panne</t>
   </si>
   <si>
-    <t>De Pinte</t>
-  </si>
-  <si>
     <t>Deerlijk</t>
   </si>
   <si>
@@ -269,9 +254,6 @@
     <t>Evergem</t>
   </si>
   <si>
-    <t>Galmaarden</t>
-  </si>
-  <si>
     <t>Gavere</t>
   </si>
   <si>
@@ -299,9 +281,6 @@
     <t>Glabbeek</t>
   </si>
   <si>
-    <t>Gooik</t>
-  </si>
-  <si>
     <t>Grimbergen</t>
   </si>
   <si>
@@ -320,9 +299,6 @@
     <t>Halle</t>
   </si>
   <si>
-    <t>Ham</t>
-  </si>
-  <si>
     <t>Hamme</t>
   </si>
   <si>
@@ -359,9 +335,6 @@
     <t>Herk-de-Stad</t>
   </si>
   <si>
-    <t>Herne</t>
-  </si>
-  <si>
     <t>Herselt</t>
   </si>
   <si>
@@ -383,9 +356,6 @@
     <t>Hoeilaart</t>
   </si>
   <si>
-    <t>Hoeselt</t>
-  </si>
-  <si>
     <t>Holsbeek</t>
   </si>
   <si>
@@ -476,18 +446,12 @@
     <t>Kortenberg</t>
   </si>
   <si>
-    <t>Kortessem</t>
-  </si>
-  <si>
     <t>Kortrijk</t>
   </si>
   <si>
     <t>Kraainem</t>
   </si>
   <si>
-    <t>Kruibeke</t>
-  </si>
-  <si>
     <t>Kuurne</t>
   </si>
   <si>
@@ -599,33 +563,21 @@
     <t>Meise</t>
   </si>
   <si>
-    <t>Melle</t>
-  </si>
-  <si>
     <t>Menen</t>
   </si>
   <si>
     <t>Merchtem</t>
   </si>
   <si>
-    <t>Merelbeke</t>
-  </si>
-  <si>
     <t>Merksplas</t>
   </si>
   <si>
     <t>Mesen</t>
   </si>
   <si>
-    <t>Meulebeke</t>
-  </si>
-  <si>
     <t>Middelkerke</t>
   </si>
   <si>
-    <t>Moerbeke</t>
-  </si>
-  <si>
     <t>Mol</t>
   </si>
   <si>
@@ -635,9 +587,6 @@
     <t>Mortsel</t>
   </si>
   <si>
-    <t>Nazareth</t>
-  </si>
-  <si>
     <t>Niel</t>
   </si>
   <si>
@@ -728,9 +677,6 @@
     <t>Rotselaar</t>
   </si>
   <si>
-    <t>Ruiselede</t>
-  </si>
-  <si>
     <t>Rumst</t>
   </si>
   <si>
@@ -797,9 +743,6 @@
     <t>Tervuren</t>
   </si>
   <si>
-    <t>Tessenderlo</t>
-  </si>
-  <si>
     <t>Tielt</t>
   </si>
   <si>
@@ -809,9 +752,6 @@
     <t>Tienen</t>
   </si>
   <si>
-    <t>Tongeren</t>
-  </si>
-  <si>
     <t>Torhout</t>
   </si>
   <si>
@@ -842,9 +782,6 @@
     <t>Waasmunster</t>
   </si>
   <si>
-    <t>Wachtebeke</t>
-  </si>
-  <si>
     <t>Waregem</t>
   </si>
   <si>
@@ -941,12 +878,6 @@
     <t>Zwevegem</t>
   </si>
   <si>
-    <t>Zwijndrecht</t>
-  </si>
-  <si>
-    <t>gemeente onbekend (Vlaanderen)</t>
-  </si>
-  <si>
     <t>gemeente</t>
   </si>
   <si>
@@ -1013,9 +944,6 @@
     <t>Rupelstreek/Zuidrand</t>
   </si>
   <si>
-    <t>Dender en Waas</t>
-  </si>
-  <si>
     <t>Stad Antwerpen</t>
   </si>
   <si>
@@ -1073,9 +1001,6 @@
     <t>sw14</t>
   </si>
   <si>
-    <t>sw15</t>
-  </si>
-  <si>
     <t>sw16</t>
   </si>
   <si>
@@ -1119,6 +1044,30 @@
   </si>
   <si>
     <t>sw99</t>
+  </si>
+  <si>
+    <t>Beveren-Kruibeke-Zwijndrecht</t>
+  </si>
+  <si>
+    <t>Bilzen-Hoeselt</t>
+  </si>
+  <si>
+    <t>Merelbeke-Melle</t>
+  </si>
+  <si>
+    <t>Nazareth-De Pinte</t>
+  </si>
+  <si>
+    <t>Pajottegem</t>
+  </si>
+  <si>
+    <t>Tessenderlo-Ham</t>
+  </si>
+  <si>
+    <t>Tongeren-Borgloon</t>
+  </si>
+  <si>
+    <t>Niet te lokaliseren - Vlaanderen</t>
   </si>
 </sst>
 </file>
@@ -1168,9 +1117,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -1485,30 +1433,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D304"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFAD801E-B6D7-47B0-A1DC-983DE19EAB1A}">
+  <dimension ref="A1:D289"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A292" workbookViewId="0">
-      <selection activeCell="C307" sqref="C307"/>
+    <sheetView tabSelected="1" topLeftCell="A211" workbookViewId="0">
+      <selection activeCell="H246" sqref="H246"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="31.21875" customWidth="1"/>
+    <col min="2" max="2" width="29.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>302</v>
+        <v>279</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>310</v>
+        <v>287</v>
       </c>
       <c r="D1" t="s">
-        <v>316</v>
+        <v>293</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -1519,10 +1467,10 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>342</v>
+        <v>318</v>
       </c>
       <c r="D2" t="s">
-        <v>323</v>
+        <v>300</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -1533,10 +1481,10 @@
         <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>345</v>
+        <v>320</v>
       </c>
       <c r="D3" t="s">
-        <v>325</v>
+        <v>301</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -1544,13 +1492,13 @@
         <v>11004</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>342</v>
+        <v>318</v>
       </c>
       <c r="D4" t="s">
-        <v>323</v>
+        <v>300</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -1558,2096 +1506,2096 @@
         <v>11005</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C5" t="s">
-        <v>342</v>
+        <v>318</v>
       </c>
       <c r="D5" t="s">
-        <v>323</v>
+        <v>300</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>11007</v>
+        <v>11008</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C6" t="s">
-        <v>342</v>
+        <v>317</v>
       </c>
       <c r="D6" t="s">
-        <v>323</v>
+        <v>299</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>11008</v>
+        <v>11009</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C7" t="s">
-        <v>341</v>
+        <v>317</v>
       </c>
       <c r="D7" t="s">
-        <v>322</v>
+        <v>299</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>11009</v>
+        <v>11013</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="C8" t="s">
-        <v>341</v>
+        <v>318</v>
       </c>
       <c r="D8" t="s">
-        <v>322</v>
+        <v>300</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>11013</v>
+        <v>11016</v>
       </c>
       <c r="B9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C9" t="s">
-        <v>342</v>
+        <v>317</v>
       </c>
       <c r="D9" t="s">
-        <v>323</v>
+        <v>299</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>11016</v>
+        <v>11018</v>
       </c>
       <c r="B10" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="C10" t="s">
-        <v>341</v>
+        <v>318</v>
       </c>
       <c r="D10" t="s">
-        <v>322</v>
+        <v>300</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>11018</v>
+        <v>11021</v>
       </c>
       <c r="B11" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="C11" t="s">
-        <v>342</v>
+        <v>318</v>
       </c>
       <c r="D11" t="s">
-        <v>323</v>
+        <v>300</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>11021</v>
+        <v>11022</v>
       </c>
       <c r="B12" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C12" t="s">
-        <v>342</v>
+        <v>317</v>
       </c>
       <c r="D12" t="s">
-        <v>323</v>
+        <v>299</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>11022</v>
+        <v>11023</v>
       </c>
       <c r="B13" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="C13" t="s">
-        <v>341</v>
+        <v>317</v>
       </c>
       <c r="D13" t="s">
-        <v>322</v>
+        <v>299</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>11023</v>
+        <v>11024</v>
       </c>
       <c r="B14" t="s">
         <v>131</v>
       </c>
       <c r="C14" t="s">
-        <v>341</v>
+        <v>318</v>
       </c>
       <c r="D14" t="s">
-        <v>322</v>
+        <v>300</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>11024</v>
+        <v>11025</v>
       </c>
       <c r="B15" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="C15" t="s">
-        <v>342</v>
+        <v>318</v>
       </c>
       <c r="D15" t="s">
-        <v>323</v>
+        <v>300</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>11025</v>
+        <v>11029</v>
       </c>
       <c r="B16" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="C16" t="s">
-        <v>342</v>
+        <v>318</v>
       </c>
       <c r="D16" t="s">
-        <v>323</v>
+        <v>300</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>11029</v>
+        <v>11030</v>
       </c>
       <c r="B17" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="C17" t="s">
-        <v>342</v>
+        <v>318</v>
       </c>
       <c r="D17" t="s">
-        <v>323</v>
+        <v>300</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>11030</v>
+        <v>11035</v>
       </c>
       <c r="B18" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="C18" t="s">
-        <v>342</v>
+        <v>317</v>
       </c>
       <c r="D18" t="s">
-        <v>323</v>
+        <v>299</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>11035</v>
+        <v>11037</v>
       </c>
       <c r="B19" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="C19" t="s">
-        <v>341</v>
+        <v>318</v>
       </c>
       <c r="D19" t="s">
-        <v>322</v>
+        <v>300</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>11037</v>
+        <v>11038</v>
       </c>
       <c r="B20" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="C20" t="s">
-        <v>342</v>
+        <v>318</v>
       </c>
       <c r="D20" t="s">
-        <v>323</v>
+        <v>300</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>11038</v>
+        <v>11039</v>
       </c>
       <c r="B21" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
       <c r="C21" t="s">
-        <v>342</v>
+        <v>317</v>
       </c>
       <c r="D21" t="s">
-        <v>323</v>
+        <v>299</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>11039</v>
+        <v>11040</v>
       </c>
       <c r="B22" t="s">
-        <v>233</v>
+        <v>216</v>
       </c>
       <c r="C22" t="s">
-        <v>341</v>
+        <v>317</v>
       </c>
       <c r="D22" t="s">
-        <v>322</v>
+        <v>299</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>11040</v>
+        <v>11044</v>
       </c>
       <c r="B23" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="C23" t="s">
-        <v>341</v>
+        <v>317</v>
       </c>
       <c r="D23" t="s">
-        <v>322</v>
+        <v>299</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>11044</v>
+        <v>11050</v>
       </c>
       <c r="B24" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="C24" t="s">
-        <v>341</v>
+        <v>317</v>
       </c>
       <c r="D24" t="s">
-        <v>322</v>
+        <v>299</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>11050</v>
+        <v>11052</v>
       </c>
       <c r="B25" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
       <c r="C25" t="s">
-        <v>341</v>
+        <v>317</v>
       </c>
       <c r="D25" t="s">
-        <v>322</v>
+        <v>299</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>11052</v>
+        <v>11053</v>
       </c>
       <c r="B26" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="C26" t="s">
-        <v>341</v>
+        <v>317</v>
       </c>
       <c r="D26" t="s">
-        <v>322</v>
+        <v>299</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>11053</v>
+        <v>11054</v>
       </c>
       <c r="B27" t="s">
-        <v>283</v>
+        <v>263</v>
       </c>
       <c r="C27" t="s">
-        <v>341</v>
+        <v>317</v>
       </c>
       <c r="D27" t="s">
-        <v>322</v>
+        <v>299</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>11054</v>
+        <v>11055</v>
       </c>
       <c r="B28" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
       <c r="C28" t="s">
-        <v>341</v>
+        <v>317</v>
       </c>
       <c r="D28" t="s">
-        <v>322</v>
+        <v>299</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>11055</v>
+        <v>11057</v>
       </c>
       <c r="B29" t="s">
-        <v>290</v>
+        <v>170</v>
       </c>
       <c r="C29" t="s">
-        <v>341</v>
+        <v>317</v>
       </c>
       <c r="D29" t="s">
-        <v>322</v>
+        <v>299</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>11056</v>
+        <v>12002</v>
       </c>
       <c r="B30" t="s">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="C30" t="s">
-        <v>344</v>
+        <v>319</v>
       </c>
       <c r="D30" t="s">
-        <v>324</v>
+        <v>280</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>11057</v>
+        <v>12005</v>
       </c>
       <c r="B31" t="s">
-        <v>182</v>
+        <v>38</v>
       </c>
       <c r="C31" t="s">
-        <v>341</v>
+        <v>319</v>
       </c>
       <c r="D31" t="s">
-        <v>322</v>
+        <v>280</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>12002</v>
+        <v>12007</v>
       </c>
       <c r="B32" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="C32" t="s">
-        <v>343</v>
+        <v>319</v>
       </c>
       <c r="D32" t="s">
-        <v>303</v>
+        <v>280</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>12005</v>
+        <v>12009</v>
       </c>
       <c r="B33" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="C33" t="s">
-        <v>343</v>
+        <v>319</v>
       </c>
       <c r="D33" t="s">
-        <v>303</v>
+        <v>280</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>12007</v>
+        <v>12014</v>
       </c>
       <c r="B34" t="s">
-        <v>44</v>
+        <v>92</v>
       </c>
       <c r="C34" t="s">
-        <v>343</v>
+        <v>316</v>
       </c>
       <c r="D34" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>12009</v>
+        <v>12021</v>
       </c>
       <c r="B35" t="s">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="C35" t="s">
-        <v>343</v>
+        <v>319</v>
       </c>
       <c r="D35" t="s">
-        <v>303</v>
+        <v>280</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>12014</v>
+        <v>12025</v>
       </c>
       <c r="B36" t="s">
-        <v>100</v>
+        <v>171</v>
       </c>
       <c r="C36" t="s">
-        <v>340</v>
+        <v>319</v>
       </c>
       <c r="D36" t="s">
-        <v>304</v>
+        <v>280</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>12021</v>
+        <v>12026</v>
       </c>
       <c r="B37" t="s">
-        <v>164</v>
+        <v>185</v>
       </c>
       <c r="C37" t="s">
-        <v>343</v>
+        <v>316</v>
       </c>
       <c r="D37" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>12025</v>
+        <v>12029</v>
       </c>
       <c r="B38" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="C38" t="s">
-        <v>343</v>
+        <v>319</v>
       </c>
       <c r="D38" t="s">
-        <v>303</v>
+        <v>280</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>12026</v>
+        <v>12035</v>
       </c>
       <c r="B39" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="C39" t="s">
-        <v>340</v>
+        <v>319</v>
       </c>
       <c r="D39" t="s">
-        <v>304</v>
+        <v>280</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>12029</v>
+        <v>12040</v>
       </c>
       <c r="B40" t="s">
-        <v>219</v>
+        <v>258</v>
       </c>
       <c r="C40" t="s">
-        <v>343</v>
+        <v>319</v>
       </c>
       <c r="D40" t="s">
-        <v>303</v>
+        <v>280</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>12035</v>
+        <v>12041</v>
       </c>
       <c r="B41" t="s">
-        <v>237</v>
+        <v>1</v>
       </c>
       <c r="C41" t="s">
-        <v>343</v>
+        <v>319</v>
       </c>
       <c r="D41" t="s">
-        <v>303</v>
+        <v>280</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>12040</v>
+        <v>13001</v>
       </c>
       <c r="B42" t="s">
-        <v>279</v>
+        <v>17</v>
       </c>
       <c r="C42" t="s">
-        <v>343</v>
+        <v>316</v>
       </c>
       <c r="D42" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>12041</v>
+        <v>13002</v>
       </c>
       <c r="B43" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="C43" t="s">
-        <v>343</v>
+        <v>316</v>
       </c>
       <c r="D43" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>13001</v>
+        <v>13003</v>
       </c>
       <c r="B44" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C44" t="s">
-        <v>340</v>
+        <v>316</v>
       </c>
       <c r="D44" t="s">
-        <v>304</v>
+        <v>281</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>13002</v>
+        <v>13004</v>
       </c>
       <c r="B45" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C45" t="s">
-        <v>340</v>
+        <v>316</v>
       </c>
       <c r="D45" t="s">
-        <v>304</v>
+        <v>281</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>13003</v>
+        <v>13006</v>
       </c>
       <c r="B46" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="C46" t="s">
-        <v>340</v>
+        <v>316</v>
       </c>
       <c r="D46" t="s">
-        <v>304</v>
+        <v>281</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>13004</v>
+        <v>13008</v>
       </c>
       <c r="B47" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="C47" t="s">
-        <v>340</v>
+        <v>316</v>
       </c>
       <c r="D47" t="s">
-        <v>304</v>
+        <v>281</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>13006</v>
+        <v>13010</v>
       </c>
       <c r="B48" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="C48" t="s">
-        <v>340</v>
+        <v>316</v>
       </c>
       <c r="D48" t="s">
-        <v>304</v>
+        <v>281</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>13008</v>
+        <v>13011</v>
       </c>
       <c r="B49" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="C49" t="s">
-        <v>340</v>
+        <v>316</v>
       </c>
       <c r="D49" t="s">
-        <v>304</v>
+        <v>281</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>13010</v>
+        <v>13012</v>
       </c>
       <c r="B50" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C50" t="s">
-        <v>340</v>
+        <v>316</v>
       </c>
       <c r="D50" t="s">
-        <v>304</v>
+        <v>281</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>13011</v>
+        <v>13013</v>
       </c>
       <c r="B51" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C51" t="s">
-        <v>340</v>
+        <v>316</v>
       </c>
       <c r="D51" t="s">
-        <v>304</v>
+        <v>281</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>13012</v>
+        <v>13014</v>
       </c>
       <c r="B52" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C52" t="s">
-        <v>340</v>
+        <v>316</v>
       </c>
       <c r="D52" t="s">
-        <v>304</v>
+        <v>281</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>13013</v>
+        <v>13016</v>
       </c>
       <c r="B53" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="C53" t="s">
-        <v>340</v>
+        <v>316</v>
       </c>
       <c r="D53" t="s">
-        <v>304</v>
+        <v>281</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>13014</v>
+        <v>13017</v>
       </c>
       <c r="B54" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="C54" t="s">
-        <v>340</v>
+        <v>316</v>
       </c>
       <c r="D54" t="s">
-        <v>304</v>
+        <v>281</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>13016</v>
+        <v>13019</v>
       </c>
       <c r="B55" t="s">
-        <v>123</v>
+        <v>154</v>
       </c>
       <c r="C55" t="s">
-        <v>340</v>
+        <v>316</v>
       </c>
       <c r="D55" t="s">
-        <v>304</v>
+        <v>281</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>13017</v>
+        <v>13021</v>
       </c>
       <c r="B56" t="s">
-        <v>134</v>
+        <v>172</v>
       </c>
       <c r="C56" t="s">
-        <v>340</v>
+        <v>316</v>
       </c>
       <c r="D56" t="s">
-        <v>304</v>
+        <v>281</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>13019</v>
+        <v>13023</v>
       </c>
       <c r="B57" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="C57" t="s">
-        <v>340</v>
+        <v>316</v>
       </c>
       <c r="D57" t="s">
-        <v>304</v>
+        <v>281</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>13021</v>
+        <v>13025</v>
       </c>
       <c r="B58" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C58" t="s">
-        <v>340</v>
+        <v>316</v>
       </c>
       <c r="D58" t="s">
-        <v>304</v>
+        <v>281</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>13023</v>
+        <v>13029</v>
       </c>
       <c r="B59" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C59" t="s">
-        <v>340</v>
+        <v>316</v>
       </c>
       <c r="D59" t="s">
-        <v>304</v>
+        <v>281</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>13025</v>
+        <v>13031</v>
       </c>
       <c r="B60" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C60" t="s">
-        <v>340</v>
+        <v>316</v>
       </c>
       <c r="D60" t="s">
-        <v>304</v>
+        <v>281</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>13029</v>
+        <v>13035</v>
       </c>
       <c r="B61" t="s">
         <v>204</v>
       </c>
       <c r="C61" t="s">
-        <v>340</v>
+        <v>316</v>
       </c>
       <c r="D61" t="s">
-        <v>304</v>
+        <v>281</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>13031</v>
+        <v>13036</v>
       </c>
       <c r="B62" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="C62" t="s">
-        <v>340</v>
+        <v>316</v>
       </c>
       <c r="D62" t="s">
-        <v>304</v>
+        <v>281</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>13035</v>
+        <v>13037</v>
       </c>
       <c r="B63" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="C63" t="s">
-        <v>340</v>
+        <v>316</v>
       </c>
       <c r="D63" t="s">
-        <v>304</v>
+        <v>281</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>13036</v>
+        <v>13040</v>
       </c>
       <c r="B64" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="C64" t="s">
-        <v>340</v>
+        <v>316</v>
       </c>
       <c r="D64" t="s">
-        <v>304</v>
+        <v>281</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>13037</v>
+        <v>13044</v>
       </c>
       <c r="B65" t="s">
-        <v>224</v>
+        <v>244</v>
       </c>
       <c r="C65" t="s">
-        <v>340</v>
+        <v>316</v>
       </c>
       <c r="D65" t="s">
-        <v>304</v>
+        <v>281</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>13040</v>
+        <v>13046</v>
       </c>
       <c r="B66" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
       <c r="C66" t="s">
-        <v>340</v>
+        <v>316</v>
       </c>
       <c r="D66" t="s">
-        <v>304</v>
+        <v>281</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>13044</v>
+        <v>13049</v>
       </c>
       <c r="B67" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="C67" t="s">
-        <v>340</v>
+        <v>316</v>
       </c>
       <c r="D67" t="s">
-        <v>304</v>
+        <v>281</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>13046</v>
+        <v>13053</v>
       </c>
       <c r="B68" t="s">
-        <v>265</v>
+        <v>138</v>
       </c>
       <c r="C68" t="s">
-        <v>340</v>
+        <v>316</v>
       </c>
       <c r="D68" t="s">
-        <v>304</v>
+        <v>281</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>13049</v>
+        <v>23002</v>
       </c>
       <c r="B69" t="s">
-        <v>272</v>
+        <v>19</v>
       </c>
       <c r="C69" t="s">
-        <v>340</v>
+        <v>315</v>
       </c>
       <c r="D69" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>13053</v>
+        <v>23003</v>
       </c>
       <c r="B70" t="s">
-        <v>150</v>
+        <v>26</v>
       </c>
       <c r="C70" t="s">
-        <v>340</v>
+        <v>314</v>
       </c>
       <c r="D70" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>23002</v>
+        <v>23009</v>
       </c>
       <c r="B71" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C71" t="s">
-        <v>339</v>
+        <v>314</v>
       </c>
       <c r="D71" t="s">
-        <v>317</v>
+        <v>295</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>23003</v>
+        <v>23016</v>
       </c>
       <c r="B72" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="C72" t="s">
-        <v>338</v>
+        <v>314</v>
       </c>
       <c r="D72" t="s">
-        <v>318</v>
+        <v>295</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>23009</v>
+        <v>23025</v>
       </c>
       <c r="B73" t="s">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="C73" t="s">
-        <v>338</v>
+        <v>315</v>
       </c>
       <c r="D73" t="s">
-        <v>318</v>
+        <v>294</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>23016</v>
+        <v>23027</v>
       </c>
       <c r="B74" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="C74" t="s">
-        <v>338</v>
+        <v>314</v>
       </c>
       <c r="D74" t="s">
-        <v>318</v>
+        <v>295</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>23023</v>
+        <v>23033</v>
       </c>
       <c r="B75" t="s">
-        <v>76</v>
+        <v>104</v>
       </c>
       <c r="C75" t="s">
-        <v>338</v>
+        <v>313</v>
       </c>
       <c r="D75" t="s">
-        <v>318</v>
+        <v>296</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>23024</v>
+        <v>23038</v>
       </c>
       <c r="B76" t="s">
-        <v>86</v>
+        <v>120</v>
       </c>
       <c r="C76" t="s">
-        <v>338</v>
+        <v>313</v>
       </c>
       <c r="D76" t="s">
-        <v>318</v>
+        <v>296</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>23025</v>
+        <v>23039</v>
       </c>
       <c r="B77" t="s">
-        <v>87</v>
+        <v>122</v>
       </c>
       <c r="C77" t="s">
-        <v>339</v>
+        <v>315</v>
       </c>
       <c r="D77" t="s">
-        <v>317</v>
+        <v>294</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>23027</v>
+        <v>23044</v>
       </c>
       <c r="B78" t="s">
-        <v>92</v>
+        <v>151</v>
       </c>
       <c r="C78" t="s">
-        <v>338</v>
+        <v>314</v>
       </c>
       <c r="D78" t="s">
-        <v>318</v>
+        <v>295</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>23032</v>
+        <v>23045</v>
       </c>
       <c r="B79" t="s">
-        <v>106</v>
+        <v>161</v>
       </c>
       <c r="C79" t="s">
-        <v>338</v>
+        <v>315</v>
       </c>
       <c r="D79" t="s">
-        <v>318</v>
+        <v>294</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>23033</v>
+        <v>23047</v>
       </c>
       <c r="B80" t="s">
-        <v>113</v>
+        <v>168</v>
       </c>
       <c r="C80" t="s">
-        <v>337</v>
+        <v>315</v>
       </c>
       <c r="D80" t="s">
-        <v>319</v>
+        <v>294</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>23038</v>
+        <v>23050</v>
       </c>
       <c r="B81" t="s">
-        <v>130</v>
+        <v>173</v>
       </c>
       <c r="C81" t="s">
-        <v>337</v>
+        <v>315</v>
       </c>
       <c r="D81" t="s">
-        <v>319</v>
+        <v>294</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>23039</v>
+        <v>23052</v>
       </c>
       <c r="B82" t="s">
-        <v>132</v>
+        <v>175</v>
       </c>
       <c r="C82" t="s">
-        <v>339</v>
+        <v>315</v>
       </c>
       <c r="D82" t="s">
-        <v>317</v>
+        <v>294</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83">
-        <v>23044</v>
+        <v>23060</v>
       </c>
       <c r="B83" t="s">
-        <v>163</v>
+        <v>192</v>
       </c>
       <c r="C83" t="s">
-        <v>338</v>
+        <v>315</v>
       </c>
       <c r="D83" t="s">
-        <v>318</v>
+        <v>294</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84">
-        <v>23045</v>
+        <v>23062</v>
       </c>
       <c r="B84" t="s">
-        <v>173</v>
+        <v>197</v>
       </c>
       <c r="C84" t="s">
-        <v>339</v>
+        <v>313</v>
       </c>
       <c r="D84" t="s">
-        <v>317</v>
+        <v>296</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85">
-        <v>23047</v>
+        <v>23064</v>
       </c>
       <c r="B85" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="C85" t="s">
-        <v>339</v>
+        <v>314</v>
       </c>
       <c r="D85" t="s">
-        <v>317</v>
+        <v>295</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86">
-        <v>23050</v>
+        <v>23077</v>
       </c>
       <c r="B86" t="s">
-        <v>185</v>
+        <v>224</v>
       </c>
       <c r="C86" t="s">
-        <v>339</v>
+        <v>314</v>
       </c>
       <c r="D86" t="s">
-        <v>317</v>
+        <v>295</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87">
-        <v>23052</v>
+        <v>23081</v>
       </c>
       <c r="B87" t="s">
-        <v>188</v>
+        <v>229</v>
       </c>
       <c r="C87" t="s">
-        <v>339</v>
+        <v>315</v>
       </c>
       <c r="D87" t="s">
-        <v>317</v>
+        <v>294</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88">
-        <v>23060</v>
+        <v>23086</v>
       </c>
       <c r="B88" t="s">
-        <v>209</v>
+        <v>232</v>
       </c>
       <c r="C88" t="s">
-        <v>339</v>
+        <v>314</v>
       </c>
       <c r="D88" t="s">
-        <v>317</v>
+        <v>295</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89">
-        <v>23062</v>
+        <v>23088</v>
       </c>
       <c r="B89" t="s">
-        <v>214</v>
+        <v>241</v>
       </c>
       <c r="C89" t="s">
-        <v>337</v>
+        <v>315</v>
       </c>
       <c r="D89" t="s">
-        <v>319</v>
+        <v>294</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90">
-        <v>23064</v>
+        <v>23094</v>
       </c>
       <c r="B90" t="s">
-        <v>216</v>
+        <v>264</v>
       </c>
       <c r="C90" t="s">
-        <v>338</v>
+        <v>315</v>
       </c>
       <c r="D90" t="s">
-        <v>318</v>
+        <v>294</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91">
-        <v>23077</v>
+        <v>23096</v>
       </c>
       <c r="B91" t="s">
-        <v>242</v>
+        <v>268</v>
       </c>
       <c r="C91" t="s">
-        <v>338</v>
+        <v>315</v>
       </c>
       <c r="D91" t="s">
-        <v>318</v>
+        <v>294</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92">
-        <v>23081</v>
+        <v>23097</v>
       </c>
       <c r="B92" t="s">
-        <v>247</v>
+        <v>210</v>
       </c>
       <c r="C92" t="s">
-        <v>339</v>
+        <v>314</v>
       </c>
       <c r="D92" t="s">
-        <v>317</v>
+        <v>295</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93">
-        <v>23086</v>
+        <v>23098</v>
       </c>
       <c r="B93" t="s">
-        <v>250</v>
+        <v>64</v>
       </c>
       <c r="C93" t="s">
-        <v>338</v>
+        <v>314</v>
       </c>
       <c r="D93" t="s">
-        <v>318</v>
+        <v>295</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94">
-        <v>23088</v>
+        <v>23099</v>
       </c>
       <c r="B94" t="s">
-        <v>261</v>
+        <v>136</v>
       </c>
       <c r="C94" t="s">
-        <v>339</v>
+        <v>315</v>
       </c>
       <c r="D94" t="s">
-        <v>317</v>
+        <v>294</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95">
-        <v>23094</v>
+        <v>23100</v>
       </c>
       <c r="B95" t="s">
-        <v>285</v>
+        <v>155</v>
       </c>
       <c r="C95" t="s">
-        <v>339</v>
+        <v>314</v>
       </c>
       <c r="D95" t="s">
-        <v>317</v>
+        <v>295</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96">
-        <v>23096</v>
+        <v>23101</v>
       </c>
       <c r="B96" t="s">
-        <v>289</v>
+        <v>217</v>
       </c>
       <c r="C96" t="s">
-        <v>339</v>
+        <v>314</v>
       </c>
       <c r="D96" t="s">
-        <v>317</v>
+        <v>295</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97">
-        <v>23097</v>
+        <v>23102</v>
       </c>
       <c r="B97" t="s">
-        <v>227</v>
+        <v>249</v>
       </c>
       <c r="C97" t="s">
-        <v>338</v>
+        <v>315</v>
       </c>
       <c r="D97" t="s">
-        <v>318</v>
+        <v>294</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98">
-        <v>23098</v>
+        <v>23103</v>
       </c>
       <c r="B98" t="s">
-        <v>69</v>
+        <v>254</v>
       </c>
       <c r="C98" t="s">
-        <v>338</v>
+        <v>315</v>
       </c>
       <c r="D98" t="s">
-        <v>318</v>
+        <v>294</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99">
-        <v>23099</v>
+        <v>23104</v>
       </c>
       <c r="B99" t="s">
         <v>147</v>
       </c>
       <c r="C99" t="s">
-        <v>339</v>
+        <v>314</v>
       </c>
       <c r="D99" t="s">
-        <v>317</v>
+        <v>295</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100">
-        <v>23100</v>
+        <v>23105</v>
       </c>
       <c r="B100" t="s">
-        <v>167</v>
+        <v>11</v>
       </c>
       <c r="C100" t="s">
-        <v>338</v>
+        <v>314</v>
       </c>
       <c r="D100" t="s">
-        <v>318</v>
+        <v>295</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101">
-        <v>23101</v>
+        <v>23106</v>
       </c>
       <c r="B101" t="s">
-        <v>235</v>
+        <v>339</v>
       </c>
       <c r="C101" t="s">
-        <v>338</v>
+        <v>314</v>
       </c>
       <c r="D101" t="s">
-        <v>318</v>
+        <v>295</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102">
-        <v>23102</v>
+        <v>24001</v>
       </c>
       <c r="B102" t="s">
-        <v>270</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>339</v>
+        <v>311</v>
       </c>
       <c r="D102" t="s">
-        <v>317</v>
+        <v>297</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103">
-        <v>23103</v>
+        <v>24007</v>
       </c>
       <c r="B103" t="s">
-        <v>275</v>
+        <v>27</v>
       </c>
       <c r="C103" t="s">
-        <v>339</v>
+        <v>311</v>
       </c>
       <c r="D103" t="s">
-        <v>317</v>
+        <v>297</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104">
-        <v>23104</v>
+        <v>24008</v>
       </c>
       <c r="B104" t="s">
-        <v>159</v>
+        <v>28</v>
       </c>
       <c r="C104" t="s">
-        <v>338</v>
+        <v>311</v>
       </c>
       <c r="D104" t="s">
-        <v>318</v>
+        <v>297</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105">
-        <v>23105</v>
+        <v>24009</v>
       </c>
       <c r="B105" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="C105" t="s">
-        <v>338</v>
+        <v>313</v>
       </c>
       <c r="D105" t="s">
-        <v>318</v>
+        <v>296</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106">
-        <v>24001</v>
+        <v>24011</v>
       </c>
       <c r="B106" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="C106" t="s">
-        <v>335</v>
+        <v>313</v>
       </c>
       <c r="D106" t="s">
-        <v>320</v>
+        <v>296</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107">
-        <v>24007</v>
+        <v>24014</v>
       </c>
       <c r="B107" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="C107" t="s">
-        <v>335</v>
+        <v>313</v>
       </c>
       <c r="D107" t="s">
-        <v>320</v>
+        <v>296</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108">
-        <v>24008</v>
+        <v>24016</v>
       </c>
       <c r="B108" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="C108" t="s">
-        <v>335</v>
+        <v>312</v>
       </c>
       <c r="D108" t="s">
-        <v>320</v>
+        <v>298</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109">
-        <v>24009</v>
+        <v>24020</v>
       </c>
       <c r="B109" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="C109" t="s">
-        <v>337</v>
+        <v>311</v>
       </c>
       <c r="D109" t="s">
-        <v>319</v>
+        <v>297</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110">
-        <v>24011</v>
+        <v>24028</v>
       </c>
       <c r="B110" t="s">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="C110" t="s">
-        <v>337</v>
+        <v>312</v>
       </c>
       <c r="D110" t="s">
-        <v>319</v>
+        <v>298</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111">
-        <v>24014</v>
+        <v>24033</v>
       </c>
       <c r="B111" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="C111" t="s">
-        <v>337</v>
+        <v>313</v>
       </c>
       <c r="D111" t="s">
-        <v>319</v>
+        <v>296</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112">
-        <v>24016</v>
+        <v>24038</v>
       </c>
       <c r="B112" t="s">
-        <v>46</v>
+        <v>94</v>
       </c>
       <c r="C112" t="s">
-        <v>336</v>
+        <v>313</v>
       </c>
       <c r="D112" t="s">
-        <v>321</v>
+        <v>296</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113">
-        <v>24020</v>
+        <v>24041</v>
       </c>
       <c r="B113" t="s">
-        <v>65</v>
+        <v>103</v>
       </c>
       <c r="C113" t="s">
-        <v>335</v>
+        <v>312</v>
       </c>
       <c r="D113" t="s">
-        <v>320</v>
+        <v>298</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114">
-        <v>24028</v>
+        <v>24043</v>
       </c>
       <c r="B114" t="s">
-        <v>79</v>
+        <v>105</v>
       </c>
       <c r="C114" t="s">
-        <v>336</v>
+        <v>311</v>
       </c>
       <c r="D114" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115">
-        <v>24033</v>
+        <v>24045</v>
       </c>
       <c r="B115" t="s">
-        <v>89</v>
+        <v>112</v>
       </c>
       <c r="C115" t="s">
-        <v>337</v>
+        <v>313</v>
       </c>
       <c r="D115" t="s">
-        <v>319</v>
+        <v>296</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116">
-        <v>24038</v>
+        <v>24048</v>
       </c>
       <c r="B116" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="C116" t="s">
-        <v>337</v>
+        <v>311</v>
       </c>
       <c r="D116" t="s">
-        <v>319</v>
+        <v>297</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117">
-        <v>24041</v>
+        <v>24054</v>
       </c>
       <c r="B117" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="C117" t="s">
-        <v>336</v>
+        <v>312</v>
       </c>
       <c r="D117" t="s">
-        <v>321</v>
+        <v>298</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118">
-        <v>24043</v>
+        <v>24055</v>
       </c>
       <c r="B118" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="C118" t="s">
-        <v>335</v>
+        <v>313</v>
       </c>
       <c r="D118" t="s">
-        <v>320</v>
+        <v>296</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119">
-        <v>24045</v>
+        <v>24059</v>
       </c>
       <c r="B119" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
       <c r="C119" t="s">
-        <v>337</v>
+        <v>312</v>
       </c>
       <c r="D119" t="s">
-        <v>319</v>
+        <v>298</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120">
-        <v>24048</v>
+        <v>24062</v>
       </c>
       <c r="B120" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="C120" t="s">
-        <v>335</v>
+        <v>313</v>
       </c>
       <c r="D120" t="s">
-        <v>320</v>
+        <v>296</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121">
-        <v>24054</v>
+        <v>24066</v>
       </c>
       <c r="B121" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
       <c r="C121" t="s">
-        <v>336</v>
+        <v>311</v>
       </c>
       <c r="D121" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122">
-        <v>24055</v>
+        <v>24086</v>
       </c>
       <c r="B122" t="s">
-        <v>144</v>
+        <v>195</v>
       </c>
       <c r="C122" t="s">
-        <v>337</v>
+        <v>313</v>
       </c>
       <c r="D122" t="s">
-        <v>319</v>
+        <v>296</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123">
-        <v>24059</v>
+        <v>24094</v>
       </c>
       <c r="B123" t="s">
-        <v>153</v>
+        <v>211</v>
       </c>
       <c r="C123" t="s">
-        <v>336</v>
+        <v>311</v>
       </c>
       <c r="D123" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124">
-        <v>24062</v>
+        <v>24104</v>
       </c>
       <c r="B124" t="s">
-        <v>161</v>
+        <v>233</v>
       </c>
       <c r="C124" t="s">
-        <v>337</v>
+        <v>313</v>
       </c>
       <c r="D124" t="s">
-        <v>319</v>
+        <v>296</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125">
-        <v>24066</v>
+        <v>24107</v>
       </c>
       <c r="B125" t="s">
-        <v>175</v>
+        <v>236</v>
       </c>
       <c r="C125" t="s">
-        <v>335</v>
+        <v>312</v>
       </c>
       <c r="D125" t="s">
-        <v>320</v>
+        <v>298</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126">
-        <v>24086</v>
+        <v>24109</v>
       </c>
       <c r="B126" t="s">
-        <v>212</v>
+        <v>238</v>
       </c>
       <c r="C126" t="s">
-        <v>337</v>
+        <v>311</v>
       </c>
       <c r="D126" t="s">
-        <v>319</v>
+        <v>297</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127">
-        <v>24094</v>
+        <v>24130</v>
       </c>
       <c r="B127" t="s">
-        <v>228</v>
+        <v>273</v>
       </c>
       <c r="C127" t="s">
-        <v>335</v>
+        <v>312</v>
       </c>
       <c r="D127" t="s">
-        <v>320</v>
+        <v>298</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128">
-        <v>24104</v>
+        <v>24133</v>
       </c>
       <c r="B128" t="s">
-        <v>251</v>
+        <v>157</v>
       </c>
       <c r="C128" t="s">
-        <v>337</v>
+        <v>312</v>
       </c>
       <c r="D128" t="s">
-        <v>319</v>
+        <v>298</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129">
-        <v>24107</v>
+        <v>24134</v>
       </c>
       <c r="B129" t="s">
-        <v>255</v>
+        <v>214</v>
       </c>
       <c r="C129" t="s">
-        <v>336</v>
+        <v>311</v>
       </c>
       <c r="D129" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130">
-        <v>24109</v>
+        <v>24135</v>
       </c>
       <c r="B130" t="s">
-        <v>258</v>
+        <v>235</v>
       </c>
       <c r="C130" t="s">
-        <v>335</v>
+        <v>311</v>
       </c>
       <c r="D130" t="s">
-        <v>320</v>
+        <v>297</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131">
-        <v>24130</v>
+        <v>24137</v>
       </c>
       <c r="B131" t="s">
-        <v>294</v>
+        <v>79</v>
       </c>
       <c r="C131" t="s">
-        <v>336</v>
+        <v>312</v>
       </c>
       <c r="D131" t="s">
-        <v>321</v>
+        <v>298</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132">
-        <v>24133</v>
+        <v>31003</v>
       </c>
       <c r="B132" t="s">
-        <v>169</v>
+        <v>24</v>
       </c>
       <c r="C132" t="s">
-        <v>336</v>
+        <v>321</v>
       </c>
       <c r="D132" t="s">
-        <v>321</v>
+        <v>302</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133">
-        <v>24134</v>
+        <v>31004</v>
       </c>
       <c r="B133" t="s">
-        <v>232</v>
+        <v>35</v>
       </c>
       <c r="C133" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
       <c r="D133" t="s">
-        <v>320</v>
+        <v>303</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134">
-        <v>24135</v>
+        <v>31005</v>
       </c>
       <c r="B134" t="s">
-        <v>254</v>
+        <v>48</v>
       </c>
       <c r="C134" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="D134" t="s">
-        <v>320</v>
+        <v>302</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135">
-        <v>24137</v>
+        <v>31006</v>
       </c>
       <c r="B135" t="s">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="C135" t="s">
-        <v>336</v>
+        <v>321</v>
       </c>
       <c r="D135" t="s">
-        <v>321</v>
+        <v>302</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136">
-        <v>31003</v>
+        <v>31012</v>
       </c>
       <c r="B136" t="s">
-        <v>24</v>
+        <v>118</v>
       </c>
       <c r="C136" t="s">
-        <v>346</v>
+        <v>321</v>
       </c>
       <c r="D136" t="s">
-        <v>326</v>
+        <v>302</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137">
-        <v>31004</v>
+        <v>31022</v>
       </c>
       <c r="B137" t="s">
-        <v>37</v>
+        <v>190</v>
       </c>
       <c r="C137" t="s">
-        <v>347</v>
+        <v>321</v>
       </c>
       <c r="D137" t="s">
-        <v>327</v>
+        <v>302</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138">
-        <v>31005</v>
+        <v>31033</v>
       </c>
       <c r="B138" t="s">
-        <v>52</v>
+        <v>237</v>
       </c>
       <c r="C138" t="s">
-        <v>346</v>
+        <v>321</v>
       </c>
       <c r="D138" t="s">
-        <v>326</v>
+        <v>302</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139">
-        <v>31006</v>
+        <v>31040</v>
       </c>
       <c r="B139" t="s">
-        <v>54</v>
+        <v>265</v>
       </c>
       <c r="C139" t="s">
-        <v>346</v>
+        <v>321</v>
       </c>
       <c r="D139" t="s">
-        <v>326</v>
+        <v>302</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140">
-        <v>31012</v>
+        <v>31042</v>
       </c>
       <c r="B140" t="s">
-        <v>128</v>
+        <v>274</v>
       </c>
       <c r="C140" t="s">
-        <v>346</v>
+        <v>321</v>
       </c>
       <c r="D140" t="s">
-        <v>326</v>
+        <v>302</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141">
-        <v>31022</v>
+        <v>31043</v>
       </c>
       <c r="B141" t="s">
-        <v>207</v>
+        <v>128</v>
       </c>
       <c r="C141" t="s">
-        <v>346</v>
+        <v>322</v>
       </c>
       <c r="D141" t="s">
-        <v>326</v>
+        <v>303</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142">
-        <v>31033</v>
+        <v>32003</v>
       </c>
       <c r="B142" t="s">
-        <v>257</v>
+        <v>61</v>
       </c>
       <c r="C142" t="s">
-        <v>346</v>
+        <v>325</v>
       </c>
       <c r="D142" t="s">
-        <v>326</v>
+        <v>305</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143">
-        <v>31040</v>
+        <v>32006</v>
       </c>
       <c r="B143" t="s">
-        <v>286</v>
+        <v>110</v>
       </c>
       <c r="C143" t="s">
-        <v>346</v>
+        <v>325</v>
       </c>
       <c r="D143" t="s">
-        <v>326</v>
+        <v>305</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144">
-        <v>31042</v>
+        <v>32010</v>
       </c>
       <c r="B144" t="s">
-        <v>295</v>
+        <v>129</v>
       </c>
       <c r="C144" t="s">
-        <v>346</v>
+        <v>325</v>
       </c>
       <c r="D144" t="s">
-        <v>326</v>
+        <v>305</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145">
-        <v>31043</v>
+        <v>32011</v>
       </c>
       <c r="B145" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C145" t="s">
-        <v>347</v>
+        <v>325</v>
       </c>
       <c r="D145" t="s">
-        <v>327</v>
+        <v>305</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146">
-        <v>32003</v>
+        <v>32030</v>
       </c>
       <c r="B146" t="s">
-        <v>66</v>
+        <v>162</v>
       </c>
       <c r="C146" t="s">
-        <v>350</v>
+        <v>325</v>
       </c>
       <c r="D146" t="s">
-        <v>329</v>
+        <v>305</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147">
-        <v>32006</v>
+        <v>33011</v>
       </c>
       <c r="B147" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C147" t="s">
-        <v>350</v>
+        <v>325</v>
       </c>
       <c r="D147" t="s">
-        <v>329</v>
+        <v>305</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148">
-        <v>32010</v>
+        <v>33016</v>
       </c>
       <c r="B148" t="s">
-        <v>139</v>
+        <v>177</v>
       </c>
       <c r="C148" t="s">
-        <v>350</v>
+        <v>325</v>
       </c>
       <c r="D148" t="s">
-        <v>329</v>
+        <v>305</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149">
-        <v>32011</v>
+        <v>33021</v>
       </c>
       <c r="B149" t="s">
-        <v>142</v>
+        <v>201</v>
       </c>
       <c r="C149" t="s">
-        <v>350</v>
+        <v>325</v>
       </c>
       <c r="D149" t="s">
-        <v>329</v>
+        <v>305</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150">
-        <v>32030</v>
+        <v>33029</v>
       </c>
       <c r="B150" t="s">
-        <v>174</v>
+        <v>250</v>
       </c>
       <c r="C150" t="s">
-        <v>350</v>
+        <v>326</v>
       </c>
       <c r="D150" t="s">
-        <v>329</v>
+        <v>282</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151">
-        <v>33011</v>
+        <v>33037</v>
       </c>
       <c r="B151" t="s">
-        <v>125</v>
+        <v>271</v>
       </c>
       <c r="C151" t="s">
-        <v>350</v>
+        <v>325</v>
       </c>
       <c r="D151" t="s">
-        <v>329</v>
+        <v>305</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152">
-        <v>33016</v>
+        <v>33039</v>
       </c>
       <c r="B152" t="s">
-        <v>191</v>
+        <v>102</v>
       </c>
       <c r="C152" t="s">
-        <v>350</v>
+        <v>325</v>
       </c>
       <c r="D152" t="s">
-        <v>329</v>
+        <v>305</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153">
-        <v>33021</v>
+        <v>33040</v>
       </c>
       <c r="B153" t="s">
-        <v>218</v>
+        <v>142</v>
       </c>
       <c r="C153" t="s">
-        <v>350</v>
+        <v>325</v>
       </c>
       <c r="D153" t="s">
-        <v>329</v>
+        <v>305</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154">
-        <v>33029</v>
+        <v>33041</v>
       </c>
       <c r="B154" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
       <c r="C154" t="s">
-        <v>351</v>
+        <v>325</v>
       </c>
       <c r="D154" t="s">
         <v>305</v>
@@ -3655,559 +3603,559 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155">
-        <v>33037</v>
+        <v>34002</v>
       </c>
       <c r="B155" t="s">
-        <v>292</v>
+        <v>15</v>
       </c>
       <c r="C155" t="s">
-        <v>350</v>
+        <v>326</v>
       </c>
       <c r="D155" t="s">
-        <v>329</v>
+        <v>282</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156">
-        <v>33039</v>
+        <v>34003</v>
       </c>
       <c r="B156" t="s">
-        <v>111</v>
+        <v>21</v>
       </c>
       <c r="C156" t="s">
-        <v>350</v>
+        <v>326</v>
       </c>
       <c r="D156" t="s">
-        <v>329</v>
+        <v>282</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157">
-        <v>33040</v>
+        <v>34009</v>
       </c>
       <c r="B157" t="s">
-        <v>154</v>
+        <v>53</v>
       </c>
       <c r="C157" t="s">
-        <v>350</v>
+        <v>326</v>
       </c>
       <c r="D157" t="s">
-        <v>329</v>
+        <v>282</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158">
-        <v>33041</v>
+        <v>34013</v>
       </c>
       <c r="B158" t="s">
-        <v>262</v>
+        <v>88</v>
       </c>
       <c r="C158" t="s">
-        <v>350</v>
+        <v>326</v>
       </c>
       <c r="D158" t="s">
-        <v>329</v>
+        <v>282</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159">
-        <v>34002</v>
+        <v>34022</v>
       </c>
       <c r="B159" t="s">
-        <v>15</v>
+        <v>135</v>
       </c>
       <c r="C159" t="s">
-        <v>351</v>
+        <v>326</v>
       </c>
       <c r="D159" t="s">
-        <v>305</v>
+        <v>282</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160">
-        <v>34003</v>
+        <v>34023</v>
       </c>
       <c r="B160" t="s">
-        <v>21</v>
+        <v>137</v>
       </c>
       <c r="C160" t="s">
-        <v>351</v>
+        <v>326</v>
       </c>
       <c r="D160" t="s">
-        <v>305</v>
+        <v>282</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161">
-        <v>34009</v>
+        <v>34025</v>
       </c>
       <c r="B161" t="s">
-        <v>58</v>
+        <v>146</v>
       </c>
       <c r="C161" t="s">
-        <v>351</v>
+        <v>326</v>
       </c>
       <c r="D161" t="s">
-        <v>305</v>
+        <v>282</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162">
-        <v>34013</v>
+        <v>34027</v>
       </c>
       <c r="B162" t="s">
-        <v>96</v>
+        <v>174</v>
       </c>
       <c r="C162" t="s">
-        <v>351</v>
+        <v>326</v>
       </c>
       <c r="D162" t="s">
-        <v>305</v>
+        <v>282</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163">
-        <v>34022</v>
+        <v>34040</v>
       </c>
       <c r="B163" t="s">
-        <v>146</v>
+        <v>247</v>
       </c>
       <c r="C163" t="s">
-        <v>351</v>
+        <v>326</v>
       </c>
       <c r="D163" t="s">
-        <v>305</v>
+        <v>282</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164">
-        <v>34023</v>
+        <v>34041</v>
       </c>
       <c r="B164" t="s">
-        <v>149</v>
+        <v>253</v>
       </c>
       <c r="C164" t="s">
-        <v>351</v>
+        <v>326</v>
       </c>
       <c r="D164" t="s">
-        <v>305</v>
+        <v>282</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165">
-        <v>34025</v>
+        <v>34042</v>
       </c>
       <c r="B165" t="s">
-        <v>158</v>
+        <v>278</v>
       </c>
       <c r="C165" t="s">
-        <v>351</v>
+        <v>326</v>
       </c>
       <c r="D165" t="s">
-        <v>305</v>
+        <v>282</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166">
-        <v>34027</v>
+        <v>34043</v>
       </c>
       <c r="B166" t="s">
-        <v>187</v>
+        <v>226</v>
       </c>
       <c r="C166" t="s">
-        <v>351</v>
+        <v>326</v>
       </c>
       <c r="D166" t="s">
-        <v>305</v>
+        <v>282</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167">
-        <v>34040</v>
+        <v>35002</v>
       </c>
       <c r="B167" t="s">
-        <v>268</v>
+        <v>46</v>
       </c>
       <c r="C167" t="s">
-        <v>351</v>
+        <v>322</v>
       </c>
       <c r="D167" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168">
-        <v>34041</v>
+        <v>35005</v>
       </c>
       <c r="B168" t="s">
-        <v>274</v>
+        <v>78</v>
       </c>
       <c r="C168" t="s">
-        <v>351</v>
+        <v>324</v>
       </c>
       <c r="D168" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169">
-        <v>34042</v>
+        <v>35006</v>
       </c>
       <c r="B169" t="s">
-        <v>299</v>
+        <v>114</v>
       </c>
       <c r="C169" t="s">
-        <v>351</v>
+        <v>324</v>
       </c>
       <c r="D169" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170">
-        <v>34043</v>
+        <v>35011</v>
       </c>
       <c r="B170" t="s">
-        <v>244</v>
+        <v>178</v>
       </c>
       <c r="C170" t="s">
-        <v>351</v>
+        <v>322</v>
       </c>
       <c r="D170" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171">
-        <v>35002</v>
+        <v>35013</v>
       </c>
       <c r="B171" t="s">
-        <v>50</v>
+        <v>188</v>
       </c>
       <c r="C171" t="s">
-        <v>347</v>
+        <v>322</v>
       </c>
       <c r="D171" t="s">
-        <v>327</v>
+        <v>303</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172">
-        <v>35005</v>
+        <v>35014</v>
       </c>
       <c r="B172" t="s">
-        <v>84</v>
+        <v>194</v>
       </c>
       <c r="C172" t="s">
-        <v>349</v>
+        <v>324</v>
       </c>
       <c r="D172" t="s">
-        <v>328</v>
+        <v>304</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173">
-        <v>35006</v>
+        <v>35029</v>
       </c>
       <c r="B173" t="s">
-        <v>124</v>
+        <v>51</v>
       </c>
       <c r="C173" t="s">
-        <v>349</v>
+        <v>322</v>
       </c>
       <c r="D173" t="s">
-        <v>328</v>
+        <v>303</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174">
-        <v>35011</v>
+        <v>36006</v>
       </c>
       <c r="B174" t="s">
-        <v>193</v>
+        <v>106</v>
       </c>
       <c r="C174" t="s">
-        <v>347</v>
+        <v>323</v>
       </c>
       <c r="D174" t="s">
-        <v>327</v>
+        <v>283</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175">
-        <v>35013</v>
+        <v>36007</v>
       </c>
       <c r="B175" t="s">
-        <v>205</v>
+        <v>116</v>
       </c>
       <c r="C175" t="s">
-        <v>347</v>
+        <v>323</v>
       </c>
       <c r="D175" t="s">
-        <v>327</v>
+        <v>283</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176">
-        <v>35014</v>
+        <v>36008</v>
       </c>
       <c r="B176" t="s">
-        <v>211</v>
+        <v>117</v>
       </c>
       <c r="C176" t="s">
-        <v>349</v>
+        <v>323</v>
       </c>
       <c r="D176" t="s">
-        <v>328</v>
+        <v>283</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177">
-        <v>35029</v>
+        <v>36010</v>
       </c>
       <c r="B177" t="s">
-        <v>55</v>
+        <v>145</v>
       </c>
       <c r="C177" t="s">
-        <v>347</v>
+        <v>323</v>
       </c>
       <c r="D177" t="s">
-        <v>327</v>
+        <v>283</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178">
-        <v>36006</v>
+        <v>36011</v>
       </c>
       <c r="B178" t="s">
-        <v>116</v>
+        <v>150</v>
       </c>
       <c r="C178" t="s">
-        <v>348</v>
+        <v>323</v>
       </c>
       <c r="D178" t="s">
-        <v>306</v>
+        <v>283</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179">
-        <v>36007</v>
+        <v>36012</v>
       </c>
       <c r="B179" t="s">
-        <v>126</v>
+        <v>180</v>
       </c>
       <c r="C179" t="s">
-        <v>348</v>
+        <v>323</v>
       </c>
       <c r="D179" t="s">
-        <v>306</v>
+        <v>283</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180">
-        <v>36008</v>
+        <v>36015</v>
       </c>
       <c r="B180" t="s">
-        <v>127</v>
+        <v>208</v>
       </c>
       <c r="C180" t="s">
-        <v>348</v>
+        <v>323</v>
       </c>
       <c r="D180" t="s">
-        <v>306</v>
+        <v>283</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181">
-        <v>36010</v>
+        <v>36019</v>
       </c>
       <c r="B181" t="s">
-        <v>157</v>
+        <v>228</v>
       </c>
       <c r="C181" t="s">
-        <v>348</v>
+        <v>323</v>
       </c>
       <c r="D181" t="s">
-        <v>306</v>
+        <v>283</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182">
-        <v>36011</v>
+        <v>37002</v>
       </c>
       <c r="B182" t="s">
-        <v>162</v>
+        <v>56</v>
       </c>
       <c r="C182" t="s">
-        <v>348</v>
+        <v>323</v>
       </c>
       <c r="D182" t="s">
-        <v>306</v>
+        <v>283</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183">
-        <v>36012</v>
+        <v>37010</v>
       </c>
       <c r="B183" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C183" t="s">
-        <v>348</v>
+        <v>323</v>
       </c>
       <c r="D183" t="s">
-        <v>306</v>
+        <v>283</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184">
-        <v>36015</v>
+        <v>37011</v>
       </c>
       <c r="B184" t="s">
-        <v>225</v>
+        <v>200</v>
       </c>
       <c r="C184" t="s">
-        <v>348</v>
+        <v>323</v>
       </c>
       <c r="D184" t="s">
-        <v>306</v>
+        <v>283</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185">
-        <v>36019</v>
+        <v>37017</v>
       </c>
       <c r="B185" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="C185" t="s">
-        <v>348</v>
+        <v>323</v>
       </c>
       <c r="D185" t="s">
-        <v>306</v>
+        <v>283</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186">
-        <v>37002</v>
+        <v>37020</v>
       </c>
       <c r="B186" t="s">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="C186" t="s">
-        <v>348</v>
+        <v>323</v>
       </c>
       <c r="D186" t="s">
-        <v>306</v>
+        <v>283</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187">
-        <v>37007</v>
+        <v>37021</v>
       </c>
       <c r="B187" t="s">
-        <v>192</v>
+        <v>259</v>
       </c>
       <c r="C187" t="s">
-        <v>348</v>
+        <v>323</v>
       </c>
       <c r="D187" t="s">
-        <v>306</v>
+        <v>283</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188">
-        <v>37010</v>
+        <v>37022</v>
       </c>
       <c r="B188" t="s">
-        <v>208</v>
+        <v>234</v>
       </c>
       <c r="C188" t="s">
-        <v>348</v>
+        <v>323</v>
       </c>
       <c r="D188" t="s">
-        <v>306</v>
+        <v>283</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189">
-        <v>37011</v>
+        <v>38002</v>
       </c>
       <c r="B189" t="s">
-        <v>217</v>
+        <v>13</v>
       </c>
       <c r="C189" t="s">
-        <v>348</v>
+        <v>325</v>
       </c>
       <c r="D189" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190">
-        <v>37012</v>
+        <v>38008</v>
       </c>
       <c r="B190" t="s">
-        <v>229</v>
+        <v>52</v>
       </c>
       <c r="C190" t="s">
-        <v>348</v>
+        <v>322</v>
       </c>
       <c r="D190" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191">
-        <v>37015</v>
+        <v>38014</v>
       </c>
       <c r="B191" t="s">
-        <v>253</v>
+        <v>130</v>
       </c>
       <c r="C191" t="s">
-        <v>348</v>
+        <v>322</v>
       </c>
       <c r="D191" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192">
-        <v>37017</v>
+        <v>38016</v>
       </c>
       <c r="B192" t="s">
-        <v>277</v>
+        <v>184</v>
       </c>
       <c r="C192" t="s">
-        <v>348</v>
+        <v>322</v>
       </c>
       <c r="D192" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193">
-        <v>37018</v>
+        <v>38025</v>
       </c>
       <c r="B193" t="s">
-        <v>280</v>
+        <v>240</v>
       </c>
       <c r="C193" t="s">
-        <v>348</v>
+        <v>325</v>
       </c>
       <c r="D193" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194">
-        <v>37020</v>
+        <v>41002</v>
       </c>
       <c r="B194" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C194" t="s">
-        <v>348</v>
+        <v>327</v>
       </c>
       <c r="D194" t="s">
         <v>306</v>
@@ -4215,489 +4163,489 @@
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195">
-        <v>38002</v>
+        <v>41011</v>
       </c>
       <c r="B195" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="C195" t="s">
-        <v>350</v>
+        <v>327</v>
       </c>
       <c r="D195" t="s">
-        <v>329</v>
+        <v>306</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196">
-        <v>38008</v>
+        <v>41018</v>
       </c>
       <c r="B196" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="C196" t="s">
-        <v>347</v>
+        <v>328</v>
       </c>
       <c r="D196" t="s">
-        <v>327</v>
+        <v>284</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197">
-        <v>38014</v>
+        <v>41024</v>
       </c>
       <c r="B197" t="s">
-        <v>140</v>
+        <v>83</v>
       </c>
       <c r="C197" t="s">
-        <v>347</v>
+        <v>327</v>
       </c>
       <c r="D197" t="s">
-        <v>327</v>
+        <v>306</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198">
-        <v>38016</v>
+        <v>41027</v>
       </c>
       <c r="B198" t="s">
-        <v>201</v>
+        <v>100</v>
       </c>
       <c r="C198" t="s">
-        <v>347</v>
+        <v>328</v>
       </c>
       <c r="D198" t="s">
-        <v>327</v>
+        <v>284</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199">
-        <v>38025</v>
+        <v>41034</v>
       </c>
       <c r="B199" t="s">
-        <v>260</v>
+        <v>144</v>
       </c>
       <c r="C199" t="s">
-        <v>350</v>
+        <v>327</v>
       </c>
       <c r="D199" t="s">
-        <v>329</v>
+        <v>306</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200">
-        <v>41002</v>
+        <v>41048</v>
       </c>
       <c r="B200" t="s">
-        <v>8</v>
+        <v>186</v>
       </c>
       <c r="C200" t="s">
-        <v>352</v>
+        <v>327</v>
       </c>
       <c r="D200" t="s">
-        <v>330</v>
+        <v>306</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201">
-        <v>41011</v>
+        <v>41063</v>
       </c>
       <c r="B201" t="s">
-        <v>59</v>
+        <v>221</v>
       </c>
       <c r="C201" t="s">
-        <v>352</v>
+        <v>328</v>
       </c>
       <c r="D201" t="s">
-        <v>330</v>
+        <v>284</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202">
-        <v>41018</v>
+        <v>41081</v>
       </c>
       <c r="B202" t="s">
-        <v>82</v>
+        <v>272</v>
       </c>
       <c r="C202" t="s">
-        <v>353</v>
+        <v>328</v>
       </c>
       <c r="D202" t="s">
-        <v>307</v>
+        <v>284</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203">
-        <v>41024</v>
+        <v>41082</v>
       </c>
       <c r="B203" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="C203" t="s">
-        <v>352</v>
+        <v>327</v>
       </c>
       <c r="D203" t="s">
-        <v>330</v>
+        <v>306</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204">
-        <v>41027</v>
+        <v>42003</v>
       </c>
       <c r="B204" t="s">
-        <v>109</v>
+        <v>31</v>
       </c>
       <c r="C204" t="s">
-        <v>353</v>
+        <v>327</v>
       </c>
       <c r="D204" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205">
-        <v>41034</v>
+        <v>42004</v>
       </c>
       <c r="B205" t="s">
-        <v>156</v>
+        <v>49</v>
       </c>
       <c r="C205" t="s">
-        <v>352</v>
+        <v>327</v>
       </c>
       <c r="D205" t="s">
-        <v>330</v>
+        <v>306</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206">
-        <v>41048</v>
+        <v>42006</v>
       </c>
       <c r="B206" t="s">
-        <v>203</v>
+        <v>55</v>
       </c>
       <c r="C206" t="s">
-        <v>352</v>
+        <v>327</v>
       </c>
       <c r="D206" t="s">
-        <v>330</v>
+        <v>306</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207">
-        <v>41063</v>
+        <v>42008</v>
       </c>
       <c r="B207" t="s">
-        <v>239</v>
+        <v>86</v>
       </c>
       <c r="C207" t="s">
-        <v>353</v>
+        <v>327</v>
       </c>
       <c r="D207" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208">
-        <v>41081</v>
+        <v>42010</v>
       </c>
       <c r="B208" t="s">
-        <v>293</v>
+        <v>139</v>
       </c>
       <c r="C208" t="s">
-        <v>353</v>
+        <v>327</v>
       </c>
       <c r="D208" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209">
-        <v>41082</v>
+        <v>42011</v>
       </c>
       <c r="B209" t="s">
-        <v>73</v>
+        <v>143</v>
       </c>
       <c r="C209" t="s">
-        <v>352</v>
+        <v>327</v>
       </c>
       <c r="D209" t="s">
-        <v>330</v>
+        <v>306</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210">
-        <v>42003</v>
+        <v>42023</v>
       </c>
       <c r="B210" t="s">
-        <v>31</v>
+        <v>246</v>
       </c>
       <c r="C210" t="s">
-        <v>352</v>
+        <v>329</v>
       </c>
       <c r="D210" t="s">
-        <v>330</v>
+        <v>285</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211">
-        <v>42004</v>
+        <v>42025</v>
       </c>
       <c r="B211" t="s">
-        <v>53</v>
+        <v>252</v>
       </c>
       <c r="C211" t="s">
-        <v>352</v>
+        <v>327</v>
       </c>
       <c r="D211" t="s">
-        <v>330</v>
+        <v>306</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212">
-        <v>42006</v>
+        <v>42026</v>
       </c>
       <c r="B212" t="s">
-        <v>60</v>
+        <v>255</v>
       </c>
       <c r="C212" t="s">
-        <v>352</v>
+        <v>327</v>
       </c>
       <c r="D212" t="s">
-        <v>330</v>
+        <v>306</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213">
-        <v>42008</v>
+        <v>42028</v>
       </c>
       <c r="B213" t="s">
-        <v>94</v>
+        <v>266</v>
       </c>
       <c r="C213" t="s">
-        <v>352</v>
+        <v>327</v>
       </c>
       <c r="D213" t="s">
-        <v>330</v>
+        <v>306</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214">
-        <v>42010</v>
+        <v>43002</v>
       </c>
       <c r="B214" t="s">
-        <v>151</v>
+        <v>20</v>
       </c>
       <c r="C214" t="s">
-        <v>352</v>
+        <v>330</v>
       </c>
       <c r="D214" t="s">
-        <v>330</v>
+        <v>307</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215">
-        <v>42011</v>
+        <v>43005</v>
       </c>
       <c r="B215" t="s">
-        <v>155</v>
+        <v>67</v>
       </c>
       <c r="C215" t="s">
-        <v>352</v>
+        <v>330</v>
       </c>
       <c r="D215" t="s">
-        <v>330</v>
+        <v>307</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216">
-        <v>42023</v>
+        <v>43007</v>
       </c>
       <c r="B216" t="s">
-        <v>266</v>
+        <v>123</v>
       </c>
       <c r="C216" t="s">
-        <v>354</v>
+        <v>330</v>
       </c>
       <c r="D216" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217">
-        <v>42025</v>
+        <v>43010</v>
       </c>
       <c r="B217" t="s">
-        <v>273</v>
+        <v>169</v>
       </c>
       <c r="C217" t="s">
-        <v>352</v>
+        <v>330</v>
       </c>
       <c r="D217" t="s">
-        <v>330</v>
+        <v>307</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218">
-        <v>42026</v>
+        <v>43014</v>
       </c>
       <c r="B218" t="s">
-        <v>276</v>
+        <v>220</v>
       </c>
       <c r="C218" t="s">
-        <v>352</v>
+        <v>330</v>
       </c>
       <c r="D218" t="s">
-        <v>330</v>
+        <v>307</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219">
-        <v>42028</v>
+        <v>43018</v>
       </c>
       <c r="B219" t="s">
-        <v>287</v>
+        <v>267</v>
       </c>
       <c r="C219" t="s">
-        <v>352</v>
+        <v>330</v>
       </c>
       <c r="D219" t="s">
-        <v>330</v>
+        <v>307</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220">
-        <v>43002</v>
+        <v>44013</v>
       </c>
       <c r="B220" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="C220" t="s">
-        <v>355</v>
+        <v>327</v>
       </c>
       <c r="D220" t="s">
-        <v>331</v>
+        <v>306</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221">
-        <v>43005</v>
+        <v>44019</v>
       </c>
       <c r="B221" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C221" t="s">
-        <v>355</v>
+        <v>330</v>
       </c>
       <c r="D221" t="s">
-        <v>331</v>
+        <v>307</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222">
-        <v>43007</v>
+        <v>44020</v>
       </c>
       <c r="B222" t="s">
-        <v>133</v>
+        <v>71</v>
       </c>
       <c r="C222" t="s">
-        <v>355</v>
+        <v>328</v>
       </c>
       <c r="D222" t="s">
-        <v>331</v>
+        <v>284</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223">
-        <v>43010</v>
+        <v>44021</v>
       </c>
       <c r="B223" t="s">
-        <v>181</v>
+        <v>75</v>
       </c>
       <c r="C223" t="s">
-        <v>355</v>
+        <v>332</v>
       </c>
       <c r="D223" t="s">
-        <v>331</v>
+        <v>309</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224">
-        <v>43014</v>
+        <v>44052</v>
       </c>
       <c r="B224" t="s">
-        <v>238</v>
+        <v>189</v>
       </c>
       <c r="C224" t="s">
-        <v>355</v>
+        <v>328</v>
       </c>
       <c r="D224" t="s">
-        <v>331</v>
+        <v>284</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225">
-        <v>43018</v>
+        <v>44064</v>
       </c>
       <c r="B225" t="s">
-        <v>288</v>
+        <v>222</v>
       </c>
       <c r="C225" t="s">
-        <v>355</v>
+        <v>331</v>
       </c>
       <c r="D225" t="s">
-        <v>331</v>
+        <v>308</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226">
-        <v>44012</v>
+        <v>44081</v>
       </c>
       <c r="B226" t="s">
-        <v>57</v>
+        <v>275</v>
       </c>
       <c r="C226" t="s">
-        <v>356</v>
+        <v>331</v>
       </c>
       <c r="D226" t="s">
-        <v>332</v>
+        <v>308</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227">
-        <v>44013</v>
+        <v>44083</v>
       </c>
       <c r="B227" t="s">
-        <v>63</v>
+        <v>2</v>
       </c>
       <c r="C227" t="s">
-        <v>352</v>
+        <v>331</v>
       </c>
       <c r="D227" t="s">
-        <v>330</v>
+        <v>308</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228">
-        <v>44019</v>
+        <v>44084</v>
       </c>
       <c r="B228" t="s">
-        <v>75</v>
+        <v>3</v>
       </c>
       <c r="C228" t="s">
-        <v>355</v>
+        <v>330</v>
       </c>
       <c r="D228" t="s">
-        <v>331</v>
+        <v>307</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229">
-        <v>44020</v>
+        <v>44085</v>
       </c>
       <c r="B229" t="s">
-        <v>77</v>
+        <v>4</v>
       </c>
       <c r="C229" t="s">
-        <v>353</v>
+        <v>330</v>
       </c>
       <c r="D229" t="s">
         <v>307</v>
@@ -4705,1055 +4653,850 @@
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230">
-        <v>44021</v>
+        <v>44086</v>
       </c>
       <c r="B230" t="s">
-        <v>81</v>
+        <v>338</v>
       </c>
       <c r="C230" t="s">
-        <v>357</v>
+        <v>331</v>
       </c>
       <c r="D230" t="s">
-        <v>333</v>
+        <v>308</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231">
-        <v>44034</v>
+        <v>44087</v>
       </c>
       <c r="B231" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="C231" t="s">
-        <v>354</v>
+        <v>329</v>
       </c>
       <c r="D231" t="s">
-        <v>308</v>
+        <v>285</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232">
-        <v>44040</v>
+        <v>44088</v>
       </c>
       <c r="B232" t="s">
-        <v>186</v>
+        <v>337</v>
       </c>
       <c r="C232" t="s">
-        <v>352</v>
+        <v>327</v>
       </c>
       <c r="D232" t="s">
-        <v>330</v>
+        <v>306</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233">
-        <v>44043</v>
+        <v>45035</v>
       </c>
       <c r="B233" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="C233" t="s">
-        <v>352</v>
+        <v>328</v>
       </c>
       <c r="D233" t="s">
-        <v>330</v>
+        <v>284</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234">
-        <v>44045</v>
+        <v>45041</v>
       </c>
       <c r="B234" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="C234" t="s">
-        <v>354</v>
+        <v>328</v>
       </c>
       <c r="D234" t="s">
-        <v>308</v>
+        <v>284</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235">
-        <v>44048</v>
+        <v>45059</v>
       </c>
       <c r="B235" t="s">
-        <v>198</v>
+        <v>43</v>
       </c>
       <c r="C235" t="s">
-        <v>356</v>
+        <v>328</v>
       </c>
       <c r="D235" t="s">
-        <v>332</v>
+        <v>284</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236">
-        <v>44052</v>
+        <v>45060</v>
       </c>
       <c r="B236" t="s">
-        <v>206</v>
+        <v>127</v>
       </c>
       <c r="C236" t="s">
-        <v>353</v>
+        <v>328</v>
       </c>
       <c r="D236" t="s">
-        <v>307</v>
+        <v>284</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237">
-        <v>44064</v>
+        <v>45061</v>
       </c>
       <c r="B237" t="s">
-        <v>240</v>
+        <v>261</v>
       </c>
       <c r="C237" t="s">
-        <v>356</v>
+        <v>328</v>
       </c>
       <c r="D237" t="s">
-        <v>332</v>
+        <v>284</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238">
-        <v>44073</v>
+        <v>45062</v>
       </c>
       <c r="B238" t="s">
-        <v>267</v>
+        <v>108</v>
       </c>
       <c r="C238" t="s">
-        <v>354</v>
+        <v>328</v>
       </c>
       <c r="D238" t="s">
-        <v>308</v>
+        <v>284</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239">
-        <v>44081</v>
+        <v>45063</v>
       </c>
       <c r="B239" t="s">
-        <v>296</v>
+        <v>153</v>
       </c>
       <c r="C239" t="s">
-        <v>356</v>
+        <v>328</v>
       </c>
       <c r="D239" t="s">
-        <v>332</v>
+        <v>284</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240">
-        <v>44083</v>
+        <v>45064</v>
       </c>
       <c r="B240" t="s">
-        <v>2</v>
+        <v>165</v>
       </c>
       <c r="C240" t="s">
-        <v>356</v>
+        <v>328</v>
       </c>
       <c r="D240" t="s">
-        <v>332</v>
+        <v>284</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241">
-        <v>44084</v>
+        <v>45065</v>
       </c>
       <c r="B241" t="s">
-        <v>3</v>
+        <v>277</v>
       </c>
       <c r="C241" t="s">
-        <v>355</v>
+        <v>328</v>
       </c>
       <c r="D241" t="s">
-        <v>331</v>
+        <v>284</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242">
-        <v>44085</v>
+        <v>45068</v>
       </c>
       <c r="B242" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C242" t="s">
-        <v>355</v>
+        <v>328</v>
       </c>
       <c r="D242" t="s">
-        <v>331</v>
+        <v>284</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243">
-        <v>45035</v>
+        <v>46020</v>
       </c>
       <c r="B243" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="C243" t="s">
-        <v>353</v>
+        <v>329</v>
       </c>
       <c r="D243" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244">
-        <v>45041</v>
+        <v>46021</v>
       </c>
       <c r="B244" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C244" t="s">
-        <v>353</v>
+        <v>329</v>
       </c>
       <c r="D244" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245">
-        <v>45059</v>
+        <v>46024</v>
       </c>
       <c r="B245" t="s">
-        <v>47</v>
+        <v>230</v>
       </c>
       <c r="C245" t="s">
-        <v>353</v>
+        <v>329</v>
       </c>
       <c r="D245" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246">
-        <v>45060</v>
+        <v>46025</v>
       </c>
       <c r="B246" t="s">
-        <v>137</v>
+        <v>231</v>
       </c>
       <c r="C246" t="s">
-        <v>353</v>
+        <v>329</v>
       </c>
       <c r="D246" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247">
-        <v>45061</v>
+        <v>46029</v>
       </c>
       <c r="B247" t="s">
-        <v>282</v>
+        <v>159</v>
       </c>
       <c r="C247" t="s">
-        <v>353</v>
+        <v>329</v>
       </c>
       <c r="D247" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248">
-        <v>45062</v>
+        <v>46030</v>
       </c>
       <c r="B248" t="s">
-        <v>118</v>
+        <v>335</v>
       </c>
       <c r="C248" t="s">
-        <v>353</v>
+        <v>330</v>
       </c>
       <c r="D248" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249">
-        <v>45063</v>
+        <v>71002</v>
       </c>
       <c r="B249" t="s">
-        <v>165</v>
+        <v>18</v>
       </c>
       <c r="C249" t="s">
-        <v>353</v>
+        <v>333</v>
       </c>
       <c r="D249" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250">
-        <v>45064</v>
+        <v>71004</v>
       </c>
       <c r="B250" t="s">
-        <v>177</v>
+        <v>29</v>
       </c>
       <c r="C250" t="s">
-        <v>353</v>
+        <v>333</v>
       </c>
       <c r="D250" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A251">
-        <v>45065</v>
+        <v>71011</v>
       </c>
       <c r="B251" t="s">
-        <v>298</v>
+        <v>59</v>
       </c>
       <c r="C251" t="s">
-        <v>353</v>
+        <v>333</v>
       </c>
       <c r="D251" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A252">
-        <v>45068</v>
+        <v>71016</v>
       </c>
       <c r="B252" t="s">
-        <v>5</v>
+        <v>74</v>
       </c>
       <c r="C252" t="s">
-        <v>353</v>
+        <v>333</v>
       </c>
       <c r="D252" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A253">
-        <v>46003</v>
+        <v>71017</v>
       </c>
       <c r="B253" t="s">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="C253" t="s">
-        <v>354</v>
+        <v>333</v>
       </c>
       <c r="D253" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254">
-        <v>46013</v>
+        <v>71020</v>
       </c>
       <c r="B254" t="s">
-        <v>148</v>
+        <v>84</v>
       </c>
       <c r="C254" t="s">
-        <v>354</v>
+        <v>333</v>
       </c>
       <c r="D254" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A255">
-        <v>46014</v>
+        <v>71024</v>
       </c>
       <c r="B255" t="s">
-        <v>171</v>
+        <v>97</v>
       </c>
       <c r="C255" t="s">
-        <v>354</v>
+        <v>333</v>
       </c>
       <c r="D255" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A256">
-        <v>46020</v>
+        <v>71034</v>
       </c>
       <c r="B256" t="s">
-        <v>236</v>
+        <v>148</v>
       </c>
       <c r="C256" t="s">
-        <v>354</v>
+        <v>333</v>
       </c>
       <c r="D256" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A257">
-        <v>46021</v>
+        <v>71037</v>
       </c>
       <c r="B257" t="s">
-        <v>241</v>
+        <v>164</v>
       </c>
       <c r="C257" t="s">
-        <v>354</v>
+        <v>333</v>
       </c>
       <c r="D257" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A258">
-        <v>46024</v>
+        <v>71045</v>
       </c>
       <c r="B258" t="s">
-        <v>248</v>
+        <v>183</v>
       </c>
       <c r="C258" t="s">
-        <v>354</v>
+        <v>333</v>
       </c>
       <c r="D258" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A259">
-        <v>46025</v>
+        <v>71053</v>
       </c>
       <c r="B259" t="s">
-        <v>249</v>
+        <v>225</v>
       </c>
       <c r="C259" t="s">
-        <v>354</v>
+        <v>333</v>
       </c>
       <c r="D259" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A260">
-        <v>71002</v>
+        <v>71066</v>
       </c>
       <c r="B260" t="s">
-        <v>18</v>
+        <v>270</v>
       </c>
       <c r="C260" t="s">
-        <v>358</v>
+        <v>333</v>
       </c>
       <c r="D260" t="s">
-        <v>334</v>
+        <v>310</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A261">
-        <v>71004</v>
+        <v>71067</v>
       </c>
       <c r="B261" t="s">
-        <v>29</v>
+        <v>276</v>
       </c>
       <c r="C261" t="s">
-        <v>358</v>
+        <v>333</v>
       </c>
       <c r="D261" t="s">
-        <v>334</v>
+        <v>310</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A262">
-        <v>71011</v>
+        <v>71070</v>
       </c>
       <c r="B262" t="s">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="C262" t="s">
-        <v>358</v>
+        <v>333</v>
       </c>
       <c r="D262" t="s">
-        <v>334</v>
+        <v>310</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263">
-        <v>71016</v>
+        <v>71071</v>
       </c>
       <c r="B263" t="s">
-        <v>80</v>
+        <v>340</v>
       </c>
       <c r="C263" t="s">
-        <v>358</v>
+        <v>333</v>
       </c>
       <c r="D263" t="s">
-        <v>334</v>
+        <v>310</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A264">
-        <v>71017</v>
+        <v>71072</v>
       </c>
       <c r="B264" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="C264" t="s">
-        <v>358</v>
+        <v>333</v>
       </c>
       <c r="D264" t="s">
-        <v>334</v>
+        <v>310</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A265">
-        <v>71020</v>
+        <v>72003</v>
       </c>
       <c r="B265" t="s">
-        <v>91</v>
+        <v>36</v>
       </c>
       <c r="C265" t="s">
-        <v>358</v>
+        <v>333</v>
       </c>
       <c r="D265" t="s">
-        <v>334</v>
+        <v>310</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A266">
-        <v>71022</v>
+        <v>72004</v>
       </c>
       <c r="B266" t="s">
-        <v>97</v>
+        <v>47</v>
       </c>
       <c r="C266" t="s">
-        <v>358</v>
+        <v>333</v>
       </c>
       <c r="D266" t="s">
-        <v>334</v>
+        <v>310</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A267">
-        <v>71024</v>
+        <v>72018</v>
       </c>
       <c r="B267" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="C267" t="s">
-        <v>358</v>
+        <v>333</v>
       </c>
       <c r="D267" t="s">
-        <v>334</v>
+        <v>310</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A268">
-        <v>71034</v>
+        <v>72020</v>
       </c>
       <c r="B268" t="s">
         <v>160</v>
       </c>
       <c r="C268" t="s">
-        <v>358</v>
+        <v>333</v>
       </c>
       <c r="D268" t="s">
-        <v>334</v>
+        <v>310</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A269">
-        <v>71037</v>
+        <v>72021</v>
       </c>
       <c r="B269" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="C269" t="s">
-        <v>358</v>
+        <v>333</v>
       </c>
       <c r="D269" t="s">
-        <v>334</v>
+        <v>310</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A270">
-        <v>71045</v>
+        <v>72030</v>
       </c>
       <c r="B270" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C270" t="s">
-        <v>358</v>
+        <v>333</v>
       </c>
       <c r="D270" t="s">
-        <v>334</v>
+        <v>310</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A271">
-        <v>71053</v>
+        <v>72037</v>
       </c>
       <c r="B271" t="s">
-        <v>243</v>
+        <v>87</v>
       </c>
       <c r="C271" t="s">
-        <v>358</v>
+        <v>333</v>
       </c>
       <c r="D271" t="s">
-        <v>334</v>
+        <v>310</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A272">
-        <v>71057</v>
+        <v>72038</v>
       </c>
       <c r="B272" t="s">
-        <v>252</v>
+        <v>90</v>
       </c>
       <c r="C272" t="s">
-        <v>358</v>
+        <v>333</v>
       </c>
       <c r="D272" t="s">
-        <v>334</v>
+        <v>310</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A273">
-        <v>71066</v>
+        <v>72039</v>
       </c>
       <c r="B273" t="s">
-        <v>291</v>
+        <v>109</v>
       </c>
       <c r="C273" t="s">
-        <v>358</v>
+        <v>333</v>
       </c>
       <c r="D273" t="s">
-        <v>334</v>
+        <v>310</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A274">
-        <v>71067</v>
+        <v>72041</v>
       </c>
       <c r="B274" t="s">
-        <v>297</v>
+        <v>63</v>
       </c>
       <c r="C274" t="s">
-        <v>358</v>
+        <v>333</v>
       </c>
       <c r="D274" t="s">
-        <v>334</v>
+        <v>310</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A275">
-        <v>71069</v>
+        <v>72042</v>
       </c>
       <c r="B275" t="s">
-        <v>93</v>
+        <v>6</v>
       </c>
       <c r="C275" t="s">
-        <v>358</v>
+        <v>333</v>
       </c>
       <c r="D275" t="s">
-        <v>334</v>
+        <v>310</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A276">
-        <v>71070</v>
+        <v>72043</v>
       </c>
       <c r="B276" t="s">
-        <v>110</v>
+        <v>7</v>
       </c>
       <c r="C276" t="s">
-        <v>358</v>
+        <v>333</v>
       </c>
       <c r="D276" t="s">
-        <v>334</v>
+        <v>310</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A277">
-        <v>72003</v>
+        <v>73001</v>
       </c>
       <c r="B277" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="C277" t="s">
-        <v>358</v>
+        <v>333</v>
       </c>
       <c r="D277" t="s">
-        <v>334</v>
+        <v>310</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A278">
-        <v>72004</v>
+        <v>73022</v>
       </c>
       <c r="B278" t="s">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="C278" t="s">
-        <v>358</v>
+        <v>333</v>
       </c>
       <c r="D278" t="s">
-        <v>334</v>
+        <v>310</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A279">
-        <v>72018</v>
+        <v>73028</v>
       </c>
       <c r="B279" t="s">
-        <v>136</v>
+        <v>99</v>
       </c>
       <c r="C279" t="s">
-        <v>358</v>
+        <v>333</v>
       </c>
       <c r="D279" t="s">
-        <v>334</v>
+        <v>310</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A280">
-        <v>72020</v>
+        <v>73042</v>
       </c>
       <c r="B280" t="s">
-        <v>172</v>
+        <v>140</v>
       </c>
       <c r="C280" t="s">
-        <v>358</v>
+        <v>333</v>
       </c>
       <c r="D280" t="s">
-        <v>334</v>
+        <v>310</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A281">
-        <v>72021</v>
+        <v>73066</v>
       </c>
       <c r="B281" t="s">
-        <v>178</v>
+        <v>206</v>
       </c>
       <c r="C281" t="s">
-        <v>358</v>
+        <v>333</v>
       </c>
       <c r="D281" t="s">
-        <v>334</v>
+        <v>310</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A282">
-        <v>72030</v>
+        <v>73098</v>
       </c>
       <c r="B282" t="s">
-        <v>215</v>
+        <v>248</v>
       </c>
       <c r="C282" t="s">
-        <v>358</v>
+        <v>333</v>
       </c>
       <c r="D282" t="s">
-        <v>334</v>
+        <v>310</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A283">
-        <v>72037</v>
+        <v>73107</v>
       </c>
       <c r="B283" t="s">
-        <v>95</v>
+        <v>167</v>
       </c>
       <c r="C283" t="s">
-        <v>358</v>
+        <v>333</v>
       </c>
       <c r="D283" t="s">
-        <v>334</v>
+        <v>310</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A284">
-        <v>72038</v>
+        <v>73109</v>
       </c>
       <c r="B284" t="s">
-        <v>98</v>
+        <v>243</v>
       </c>
       <c r="C284" t="s">
-        <v>358</v>
+        <v>333</v>
       </c>
       <c r="D284" t="s">
-        <v>334</v>
+        <v>310</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A285">
-        <v>72039</v>
+        <v>73110</v>
       </c>
       <c r="B285" t="s">
-        <v>119</v>
+        <v>336</v>
       </c>
       <c r="C285" t="s">
-        <v>358</v>
+        <v>333</v>
       </c>
       <c r="D285" t="s">
-        <v>334</v>
+        <v>310</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A286">
-        <v>72041</v>
+        <v>73111</v>
       </c>
       <c r="B286" t="s">
-        <v>68</v>
+        <v>341</v>
       </c>
       <c r="C286" t="s">
-        <v>358</v>
+        <v>333</v>
       </c>
       <c r="D286" t="s">
-        <v>334</v>
+        <v>310</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A287">
-        <v>72042</v>
+        <v>99991</v>
       </c>
       <c r="B287" t="s">
-        <v>6</v>
+        <v>342</v>
       </c>
       <c r="C287" t="s">
-        <v>358</v>
+        <v>292</v>
       </c>
       <c r="D287" t="s">
-        <v>334</v>
+        <v>291</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A288">
-        <v>72043</v>
+        <v>99993</v>
       </c>
       <c r="B288" t="s">
-        <v>7</v>
+        <v>290</v>
       </c>
       <c r="C288" t="s">
-        <v>358</v>
+        <v>288</v>
       </c>
       <c r="D288" t="s">
-        <v>334</v>
+        <v>289</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A289">
-        <v>73001</v>
+        <v>99999</v>
       </c>
       <c r="B289" t="s">
-        <v>12</v>
+        <v>286</v>
       </c>
       <c r="C289" t="s">
-        <v>358</v>
+        <v>334</v>
       </c>
       <c r="D289" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A290">
-        <v>73006</v>
-      </c>
-      <c r="B290" t="s">
-        <v>36</v>
-      </c>
-      <c r="C290" t="s">
-        <v>358</v>
-      </c>
-      <c r="D290" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A291">
-        <v>73009</v>
-      </c>
-      <c r="B291" t="s">
-        <v>43</v>
-      </c>
-      <c r="C291" t="s">
-        <v>358</v>
-      </c>
-      <c r="D291" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A292">
-        <v>73022</v>
-      </c>
-      <c r="B292" t="s">
-        <v>99</v>
-      </c>
-      <c r="C292" t="s">
-        <v>358</v>
-      </c>
-      <c r="D292" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A293">
-        <v>73028</v>
-      </c>
-      <c r="B293" t="s">
-        <v>108</v>
-      </c>
-      <c r="C293" t="s">
-        <v>358</v>
-      </c>
-      <c r="D293" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A294">
-        <v>73032</v>
-      </c>
-      <c r="B294" t="s">
-        <v>114</v>
-      </c>
-      <c r="C294" t="s">
-        <v>358</v>
-      </c>
-      <c r="D294" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A295">
-        <v>73040</v>
-      </c>
-      <c r="B295" t="s">
-        <v>145</v>
-      </c>
-      <c r="C295" t="s">
-        <v>358</v>
-      </c>
-      <c r="D295" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A296">
-        <v>73042</v>
-      </c>
-      <c r="B296" t="s">
-        <v>152</v>
-      </c>
-      <c r="C296" t="s">
-        <v>358</v>
-      </c>
-      <c r="D296" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A297">
-        <v>73066</v>
-      </c>
-      <c r="B297" t="s">
-        <v>223</v>
-      </c>
-      <c r="C297" t="s">
-        <v>358</v>
-      </c>
-      <c r="D297" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A298">
-        <v>73083</v>
-      </c>
-      <c r="B298" t="s">
-        <v>256</v>
-      </c>
-      <c r="C298" t="s">
-        <v>358</v>
-      </c>
-      <c r="D298" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A299">
-        <v>73098</v>
-      </c>
-      <c r="B299" t="s">
-        <v>269</v>
-      </c>
-      <c r="C299" t="s">
-        <v>358</v>
-      </c>
-      <c r="D299" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A300">
-        <v>73107</v>
-      </c>
-      <c r="B300" t="s">
-        <v>179</v>
-      </c>
-      <c r="C300" t="s">
-        <v>358</v>
-      </c>
-      <c r="D300" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A301">
-        <v>73109</v>
-      </c>
-      <c r="B301" t="s">
-        <v>263</v>
-      </c>
-      <c r="C301" t="s">
-        <v>358</v>
-      </c>
-      <c r="D301" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A302">
-        <v>99991</v>
-      </c>
-      <c r="B302" t="s">
-        <v>301</v>
-      </c>
-      <c r="C302" t="s">
-        <v>315</v>
-      </c>
-      <c r="D302" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A303">
-        <v>99999</v>
-      </c>
-      <c r="B303" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="C303" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="D303" s="1" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A304">
-        <v>99993</v>
-      </c>
-      <c r="B304" t="s">
-        <v>313</v>
-      </c>
-      <c r="C304" t="s">
-        <v>311</v>
-      </c>
-      <c r="D304" t="s">
-        <v>312</v>
+        <v>286</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D1" xr:uid="{FFAD801E-B6D7-47B0-A1DC-983DE19EAB1A}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D289">
+      <sortCondition ref="A1"/>
+    </sortState>
+  </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/kerntabellen/gemeente_streekwerking.xlsx
+++ b/kerntabellen/gemeente_streekwerking.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gebiedsniveaus_NIEUW\kerntabellen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\gebiedsniveaus\kerntabellen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{774A7206-DB90-443B-9C4D-9BD58694ACF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE564873-D60F-484C-BE18-887D31F13783}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-4065" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-990" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="3" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="339">
   <si>
     <t>Name gemeente</t>
   </si>
@@ -903,18 +903,6 @@
   </si>
   <si>
     <t>streekwerking</t>
-  </si>
-  <si>
-    <t>sw93</t>
-  </si>
-  <si>
-    <t>Gebied streekwerking onbekend</t>
-  </si>
-  <si>
-    <t>Niet te lokaliseren</t>
-  </si>
-  <si>
-    <t>Gebied streekwerking onbekend (Vlaanderen)</t>
   </si>
   <si>
     <t>sw91</t>
@@ -1138,9 +1126,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Thema">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1178,7 +1166,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1284,7 +1272,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1426,7 +1414,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1434,10 +1422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFAD801E-B6D7-47B0-A1DC-983DE19EAB1A}">
-  <dimension ref="A1:D289"/>
+  <dimension ref="A1:D288"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A211" workbookViewId="0">
-      <selection activeCell="H246" sqref="H246"/>
+    <sheetView tabSelected="1" topLeftCell="A277" workbookViewId="0">
+      <selection activeCell="J288" sqref="J288"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1456,7 +1444,7 @@
         <v>287</v>
       </c>
       <c r="D1" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -1467,10 +1455,10 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="D2" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -1481,10 +1469,10 @@
         <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="D3" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -1495,10 +1483,10 @@
         <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="D4" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -1509,10 +1497,10 @@
         <v>39</v>
       </c>
       <c r="C5" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="D5" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -1523,10 +1511,10 @@
         <v>44</v>
       </c>
       <c r="C6" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D6" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -1537,10 +1525,10 @@
         <v>45</v>
       </c>
       <c r="C7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -1551,10 +1539,10 @@
         <v>66</v>
       </c>
       <c r="C8" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="D8" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -1565,10 +1553,10 @@
         <v>69</v>
       </c>
       <c r="C9" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D9" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -1579,10 +1567,10 @@
         <v>93</v>
       </c>
       <c r="C10" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="D10" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -1593,10 +1581,10 @@
         <v>111</v>
       </c>
       <c r="C11" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="D11" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -1607,10 +1595,10 @@
         <v>119</v>
       </c>
       <c r="C12" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D12" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -1621,10 +1609,10 @@
         <v>121</v>
       </c>
       <c r="C13" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D13" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -1635,10 +1623,10 @@
         <v>131</v>
       </c>
       <c r="C14" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="D14" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -1649,10 +1637,10 @@
         <v>156</v>
       </c>
       <c r="C15" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="D15" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -1663,10 +1651,10 @@
         <v>181</v>
       </c>
       <c r="C16" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="D16" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -1677,10 +1665,10 @@
         <v>182</v>
       </c>
       <c r="C17" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="D17" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -1691,10 +1679,10 @@
         <v>203</v>
       </c>
       <c r="C18" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D18" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -1705,10 +1693,10 @@
         <v>212</v>
       </c>
       <c r="C19" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="D19" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -1719,10 +1707,10 @@
         <v>213</v>
       </c>
       <c r="C20" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="D20" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -1733,10 +1721,10 @@
         <v>215</v>
       </c>
       <c r="C21" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D21" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -1747,10 +1735,10 @@
         <v>216</v>
       </c>
       <c r="C22" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D22" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -1761,10 +1749,10 @@
         <v>227</v>
       </c>
       <c r="C23" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D23" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -1775,10 +1763,10 @@
         <v>257</v>
       </c>
       <c r="C24" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D24" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -1789,10 +1777,10 @@
         <v>260</v>
       </c>
       <c r="C25" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D25" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -1803,10 +1791,10 @@
         <v>262</v>
       </c>
       <c r="C26" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D26" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -1817,10 +1805,10 @@
         <v>263</v>
       </c>
       <c r="C27" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D27" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -1831,10 +1819,10 @@
         <v>269</v>
       </c>
       <c r="C28" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D28" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -1845,10 +1833,10 @@
         <v>170</v>
       </c>
       <c r="C29" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D29" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -1859,7 +1847,7 @@
         <v>30</v>
       </c>
       <c r="C30" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D30" t="s">
         <v>280</v>
@@ -1873,7 +1861,7 @@
         <v>38</v>
       </c>
       <c r="C31" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D31" t="s">
         <v>280</v>
@@ -1887,7 +1875,7 @@
         <v>41</v>
       </c>
       <c r="C32" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D32" t="s">
         <v>280</v>
@@ -1901,7 +1889,7 @@
         <v>65</v>
       </c>
       <c r="C33" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D33" t="s">
         <v>280</v>
@@ -1915,7 +1903,7 @@
         <v>92</v>
       </c>
       <c r="C34" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="D34" t="s">
         <v>281</v>
@@ -1929,7 +1917,7 @@
         <v>152</v>
       </c>
       <c r="C35" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D35" t="s">
         <v>280</v>
@@ -1943,7 +1931,7 @@
         <v>171</v>
       </c>
       <c r="C36" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D36" t="s">
         <v>280</v>
@@ -1957,7 +1945,7 @@
         <v>185</v>
       </c>
       <c r="C37" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="D37" t="s">
         <v>281</v>
@@ -1971,7 +1959,7 @@
         <v>202</v>
       </c>
       <c r="C38" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D38" t="s">
         <v>280</v>
@@ -1985,7 +1973,7 @@
         <v>219</v>
       </c>
       <c r="C39" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D39" t="s">
         <v>280</v>
@@ -1999,7 +1987,7 @@
         <v>258</v>
       </c>
       <c r="C40" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D40" t="s">
         <v>280</v>
@@ -2013,7 +2001,7 @@
         <v>1</v>
       </c>
       <c r="C41" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D41" t="s">
         <v>280</v>
@@ -2027,7 +2015,7 @@
         <v>17</v>
       </c>
       <c r="C42" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="D42" t="s">
         <v>281</v>
@@ -2041,7 +2029,7 @@
         <v>22</v>
       </c>
       <c r="C43" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="D43" t="s">
         <v>281</v>
@@ -2055,7 +2043,7 @@
         <v>23</v>
       </c>
       <c r="C44" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="D44" t="s">
         <v>281</v>
@@ -2069,7 +2057,7 @@
         <v>25</v>
       </c>
       <c r="C45" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="D45" t="s">
         <v>281</v>
@@ -2083,7 +2071,7 @@
         <v>57</v>
       </c>
       <c r="C46" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="D46" t="s">
         <v>281</v>
@@ -2097,7 +2085,7 @@
         <v>72</v>
       </c>
       <c r="C47" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="D47" t="s">
         <v>281</v>
@@ -2111,7 +2099,7 @@
         <v>81</v>
       </c>
       <c r="C48" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="D48" t="s">
         <v>281</v>
@@ -2125,7 +2113,7 @@
         <v>95</v>
       </c>
       <c r="C49" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="D49" t="s">
         <v>281</v>
@@ -2139,7 +2127,7 @@
         <v>96</v>
       </c>
       <c r="C50" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="D50" t="s">
         <v>281</v>
@@ -2153,7 +2141,7 @@
         <v>98</v>
       </c>
       <c r="C51" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="D51" t="s">
         <v>281</v>
@@ -2167,7 +2155,7 @@
         <v>107</v>
       </c>
       <c r="C52" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="D52" t="s">
         <v>281</v>
@@ -2181,7 +2169,7 @@
         <v>113</v>
       </c>
       <c r="C53" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="D53" t="s">
         <v>281</v>
@@ -2195,7 +2183,7 @@
         <v>124</v>
       </c>
       <c r="C54" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="D54" t="s">
         <v>281</v>
@@ -2209,7 +2197,7 @@
         <v>154</v>
       </c>
       <c r="C55" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="D55" t="s">
         <v>281</v>
@@ -2223,7 +2211,7 @@
         <v>172</v>
       </c>
       <c r="C56" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="D56" t="s">
         <v>281</v>
@@ -2237,7 +2225,7 @@
         <v>176</v>
       </c>
       <c r="C57" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="D57" t="s">
         <v>281</v>
@@ -2251,7 +2239,7 @@
         <v>179</v>
       </c>
       <c r="C58" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="D58" t="s">
         <v>281</v>
@@ -2265,7 +2253,7 @@
         <v>187</v>
       </c>
       <c r="C59" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="D59" t="s">
         <v>281</v>
@@ -2279,7 +2267,7 @@
         <v>196</v>
       </c>
       <c r="C60" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="D60" t="s">
         <v>281</v>
@@ -2293,7 +2281,7 @@
         <v>204</v>
       </c>
       <c r="C61" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="D61" t="s">
         <v>281</v>
@@ -2307,7 +2295,7 @@
         <v>205</v>
       </c>
       <c r="C62" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="D62" t="s">
         <v>281</v>
@@ -2321,7 +2309,7 @@
         <v>207</v>
       </c>
       <c r="C63" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="D63" t="s">
         <v>281</v>
@@ -2335,7 +2323,7 @@
         <v>239</v>
       </c>
       <c r="C64" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="D64" t="s">
         <v>281</v>
@@ -2349,7 +2337,7 @@
         <v>244</v>
       </c>
       <c r="C65" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="D65" t="s">
         <v>281</v>
@@ -2363,7 +2351,7 @@
         <v>245</v>
       </c>
       <c r="C66" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="D66" t="s">
         <v>281</v>
@@ -2377,7 +2365,7 @@
         <v>251</v>
       </c>
       <c r="C67" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="D67" t="s">
         <v>281</v>
@@ -2391,7 +2379,7 @@
         <v>138</v>
       </c>
       <c r="C68" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="D68" t="s">
         <v>281</v>
@@ -2405,10 +2393,10 @@
         <v>19</v>
       </c>
       <c r="C69" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="D69" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
@@ -2419,10 +2407,10 @@
         <v>26</v>
       </c>
       <c r="C70" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="D70" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
@@ -2433,10 +2421,10 @@
         <v>33</v>
       </c>
       <c r="C71" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="D71" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
@@ -2447,10 +2435,10 @@
         <v>62</v>
       </c>
       <c r="C72" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="D72" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
@@ -2461,10 +2449,10 @@
         <v>80</v>
       </c>
       <c r="C73" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="D73" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
@@ -2475,10 +2463,10 @@
         <v>85</v>
       </c>
       <c r="C74" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="D74" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
@@ -2489,10 +2477,10 @@
         <v>104</v>
       </c>
       <c r="C75" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="D75" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
@@ -2503,10 +2491,10 @@
         <v>120</v>
       </c>
       <c r="C76" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="D76" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
@@ -2517,10 +2505,10 @@
         <v>122</v>
       </c>
       <c r="C77" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="D77" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
@@ -2531,10 +2519,10 @@
         <v>151</v>
       </c>
       <c r="C78" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="D78" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
@@ -2545,10 +2533,10 @@
         <v>161</v>
       </c>
       <c r="C79" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="D79" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
@@ -2559,10 +2547,10 @@
         <v>168</v>
       </c>
       <c r="C80" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="D80" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
@@ -2573,10 +2561,10 @@
         <v>173</v>
       </c>
       <c r="C81" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="D81" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
@@ -2587,10 +2575,10 @@
         <v>175</v>
       </c>
       <c r="C82" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="D82" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
@@ -2601,10 +2589,10 @@
         <v>192</v>
       </c>
       <c r="C83" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="D83" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
@@ -2615,10 +2603,10 @@
         <v>197</v>
       </c>
       <c r="C84" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="D84" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
@@ -2629,10 +2617,10 @@
         <v>199</v>
       </c>
       <c r="C85" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="D85" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
@@ -2643,10 +2631,10 @@
         <v>224</v>
       </c>
       <c r="C86" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="D86" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
@@ -2657,10 +2645,10 @@
         <v>229</v>
       </c>
       <c r="C87" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="D87" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
@@ -2671,10 +2659,10 @@
         <v>232</v>
       </c>
       <c r="C88" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="D88" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
@@ -2685,10 +2673,10 @@
         <v>241</v>
       </c>
       <c r="C89" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="D89" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
@@ -2699,10 +2687,10 @@
         <v>264</v>
       </c>
       <c r="C90" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="D90" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
@@ -2713,10 +2701,10 @@
         <v>268</v>
       </c>
       <c r="C91" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="D91" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
@@ -2727,10 +2715,10 @@
         <v>210</v>
       </c>
       <c r="C92" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="D92" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
@@ -2741,10 +2729,10 @@
         <v>64</v>
       </c>
       <c r="C93" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="D93" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
@@ -2755,10 +2743,10 @@
         <v>136</v>
       </c>
       <c r="C94" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="D94" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
@@ -2769,10 +2757,10 @@
         <v>155</v>
       </c>
       <c r="C95" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="D95" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
@@ -2783,10 +2771,10 @@
         <v>217</v>
       </c>
       <c r="C96" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="D96" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
@@ -2797,10 +2785,10 @@
         <v>249</v>
       </c>
       <c r="C97" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="D97" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
@@ -2811,10 +2799,10 @@
         <v>254</v>
       </c>
       <c r="C98" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="D98" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
@@ -2825,10 +2813,10 @@
         <v>147</v>
       </c>
       <c r="C99" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="D99" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
@@ -2839,10 +2827,10 @@
         <v>11</v>
       </c>
       <c r="C100" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="D100" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
@@ -2850,13 +2838,13 @@
         <v>23106</v>
       </c>
       <c r="B101" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C101" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="D101" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
@@ -2867,10 +2855,10 @@
         <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="D102" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
@@ -2881,10 +2869,10 @@
         <v>27</v>
       </c>
       <c r="C103" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="D103" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
@@ -2895,10 +2883,10 @@
         <v>28</v>
       </c>
       <c r="C104" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="D104" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
@@ -2909,10 +2897,10 @@
         <v>32</v>
       </c>
       <c r="C105" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="D105" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
@@ -2923,10 +2911,10 @@
         <v>34</v>
       </c>
       <c r="C106" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="D106" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
@@ -2937,10 +2925,10 @@
         <v>40</v>
       </c>
       <c r="C107" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="D107" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
@@ -2951,10 +2939,10 @@
         <v>42</v>
       </c>
       <c r="C108" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="D108" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
@@ -2965,10 +2953,10 @@
         <v>60</v>
       </c>
       <c r="C109" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="D109" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
@@ -2979,10 +2967,10 @@
         <v>73</v>
       </c>
       <c r="C110" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="D110" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
@@ -2993,10 +2981,10 @@
         <v>82</v>
       </c>
       <c r="C111" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="D111" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
@@ -3007,10 +2995,10 @@
         <v>94</v>
       </c>
       <c r="C112" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="D112" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
@@ -3021,10 +3009,10 @@
         <v>103</v>
       </c>
       <c r="C113" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="D113" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
@@ -3035,10 +3023,10 @@
         <v>105</v>
       </c>
       <c r="C114" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="D114" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
@@ -3049,10 +3037,10 @@
         <v>112</v>
       </c>
       <c r="C115" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="D115" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
@@ -3063,10 +3051,10 @@
         <v>125</v>
       </c>
       <c r="C116" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="D116" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
@@ -3077,10 +3065,10 @@
         <v>133</v>
       </c>
       <c r="C117" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="D117" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
@@ -3091,10 +3079,10 @@
         <v>134</v>
       </c>
       <c r="C118" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="D118" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
@@ -3105,10 +3093,10 @@
         <v>141</v>
       </c>
       <c r="C119" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="D119" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
@@ -3119,10 +3107,10 @@
         <v>149</v>
       </c>
       <c r="C120" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="D120" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
@@ -3133,10 +3121,10 @@
         <v>163</v>
       </c>
       <c r="C121" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="D121" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
@@ -3147,10 +3135,10 @@
         <v>195</v>
       </c>
       <c r="C122" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="D122" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
@@ -3161,10 +3149,10 @@
         <v>211</v>
       </c>
       <c r="C123" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="D123" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
@@ -3175,10 +3163,10 @@
         <v>233</v>
       </c>
       <c r="C124" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="D124" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
@@ -3189,10 +3177,10 @@
         <v>236</v>
       </c>
       <c r="C125" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="D125" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
@@ -3203,10 +3191,10 @@
         <v>238</v>
       </c>
       <c r="C126" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="D126" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
@@ -3217,10 +3205,10 @@
         <v>273</v>
       </c>
       <c r="C127" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="D127" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
@@ -3231,10 +3219,10 @@
         <v>157</v>
       </c>
       <c r="C128" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="D128" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
@@ -3245,10 +3233,10 @@
         <v>214</v>
       </c>
       <c r="C129" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="D129" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
@@ -3259,10 +3247,10 @@
         <v>235</v>
       </c>
       <c r="C130" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="D130" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
@@ -3273,10 +3261,10 @@
         <v>79</v>
       </c>
       <c r="C131" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="D131" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
@@ -3287,10 +3275,10 @@
         <v>24</v>
       </c>
       <c r="C132" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D132" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
@@ -3301,10 +3289,10 @@
         <v>35</v>
       </c>
       <c r="C133" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="D133" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
@@ -3315,10 +3303,10 @@
         <v>48</v>
       </c>
       <c r="C134" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D134" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
@@ -3329,10 +3317,10 @@
         <v>50</v>
       </c>
       <c r="C135" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D135" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
@@ -3343,10 +3331,10 @@
         <v>118</v>
       </c>
       <c r="C136" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D136" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
@@ -3357,10 +3345,10 @@
         <v>190</v>
       </c>
       <c r="C137" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D137" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
@@ -3371,10 +3359,10 @@
         <v>237</v>
       </c>
       <c r="C138" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D138" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.3">
@@ -3385,10 +3373,10 @@
         <v>265</v>
       </c>
       <c r="C139" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D139" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.3">
@@ -3399,10 +3387,10 @@
         <v>274</v>
       </c>
       <c r="C140" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D140" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.3">
@@ -3413,10 +3401,10 @@
         <v>128</v>
       </c>
       <c r="C141" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="D141" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.3">
@@ -3427,10 +3415,10 @@
         <v>61</v>
       </c>
       <c r="C142" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="D142" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.3">
@@ -3441,10 +3429,10 @@
         <v>110</v>
       </c>
       <c r="C143" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="D143" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.3">
@@ -3455,10 +3443,10 @@
         <v>129</v>
       </c>
       <c r="C144" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="D144" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.3">
@@ -3469,10 +3457,10 @@
         <v>132</v>
       </c>
       <c r="C145" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="D145" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.3">
@@ -3483,10 +3471,10 @@
         <v>162</v>
       </c>
       <c r="C146" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="D146" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.3">
@@ -3497,10 +3485,10 @@
         <v>115</v>
       </c>
       <c r="C147" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="D147" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.3">
@@ -3511,10 +3499,10 @@
         <v>177</v>
       </c>
       <c r="C148" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="D148" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.3">
@@ -3525,10 +3513,10 @@
         <v>201</v>
       </c>
       <c r="C149" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="D149" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.3">
@@ -3539,7 +3527,7 @@
         <v>250</v>
       </c>
       <c r="C150" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="D150" t="s">
         <v>282</v>
@@ -3553,10 +3541,10 @@
         <v>271</v>
       </c>
       <c r="C151" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="D151" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.3">
@@ -3567,10 +3555,10 @@
         <v>102</v>
       </c>
       <c r="C152" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="D152" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.3">
@@ -3581,10 +3569,10 @@
         <v>142</v>
       </c>
       <c r="C153" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="D153" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.3">
@@ -3595,10 +3583,10 @@
         <v>242</v>
       </c>
       <c r="C154" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="D154" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.3">
@@ -3609,7 +3597,7 @@
         <v>15</v>
       </c>
       <c r="C155" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="D155" t="s">
         <v>282</v>
@@ -3623,7 +3611,7 @@
         <v>21</v>
       </c>
       <c r="C156" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="D156" t="s">
         <v>282</v>
@@ -3637,7 +3625,7 @@
         <v>53</v>
       </c>
       <c r="C157" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="D157" t="s">
         <v>282</v>
@@ -3651,7 +3639,7 @@
         <v>88</v>
       </c>
       <c r="C158" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="D158" t="s">
         <v>282</v>
@@ -3665,7 +3653,7 @@
         <v>135</v>
       </c>
       <c r="C159" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="D159" t="s">
         <v>282</v>
@@ -3679,7 +3667,7 @@
         <v>137</v>
       </c>
       <c r="C160" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="D160" t="s">
         <v>282</v>
@@ -3693,7 +3681,7 @@
         <v>146</v>
       </c>
       <c r="C161" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="D161" t="s">
         <v>282</v>
@@ -3707,7 +3695,7 @@
         <v>174</v>
       </c>
       <c r="C162" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="D162" t="s">
         <v>282</v>
@@ -3721,7 +3709,7 @@
         <v>247</v>
       </c>
       <c r="C163" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="D163" t="s">
         <v>282</v>
@@ -3735,7 +3723,7 @@
         <v>253</v>
       </c>
       <c r="C164" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="D164" t="s">
         <v>282</v>
@@ -3749,7 +3737,7 @@
         <v>278</v>
       </c>
       <c r="C165" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="D165" t="s">
         <v>282</v>
@@ -3763,7 +3751,7 @@
         <v>226</v>
       </c>
       <c r="C166" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="D166" t="s">
         <v>282</v>
@@ -3777,10 +3765,10 @@
         <v>46</v>
       </c>
       <c r="C167" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="D167" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.3">
@@ -3791,10 +3779,10 @@
         <v>78</v>
       </c>
       <c r="C168" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="D168" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.3">
@@ -3805,10 +3793,10 @@
         <v>114</v>
       </c>
       <c r="C169" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="D169" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.3">
@@ -3819,10 +3807,10 @@
         <v>178</v>
       </c>
       <c r="C170" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="D170" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.3">
@@ -3833,10 +3821,10 @@
         <v>188</v>
       </c>
       <c r="C171" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="D171" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.3">
@@ -3847,10 +3835,10 @@
         <v>194</v>
       </c>
       <c r="C172" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="D172" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.3">
@@ -3861,10 +3849,10 @@
         <v>51</v>
       </c>
       <c r="C173" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="D173" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.3">
@@ -3875,7 +3863,7 @@
         <v>106</v>
       </c>
       <c r="C174" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="D174" t="s">
         <v>283</v>
@@ -3889,7 +3877,7 @@
         <v>116</v>
       </c>
       <c r="C175" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="D175" t="s">
         <v>283</v>
@@ -3903,7 +3891,7 @@
         <v>117</v>
       </c>
       <c r="C176" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="D176" t="s">
         <v>283</v>
@@ -3917,7 +3905,7 @@
         <v>145</v>
       </c>
       <c r="C177" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="D177" t="s">
         <v>283</v>
@@ -3931,7 +3919,7 @@
         <v>150</v>
       </c>
       <c r="C178" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="D178" t="s">
         <v>283</v>
@@ -3945,7 +3933,7 @@
         <v>180</v>
       </c>
       <c r="C179" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="D179" t="s">
         <v>283</v>
@@ -3959,7 +3947,7 @@
         <v>208</v>
       </c>
       <c r="C180" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="D180" t="s">
         <v>283</v>
@@ -3973,7 +3961,7 @@
         <v>228</v>
       </c>
       <c r="C181" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="D181" t="s">
         <v>283</v>
@@ -3987,7 +3975,7 @@
         <v>56</v>
       </c>
       <c r="C182" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="D182" t="s">
         <v>283</v>
@@ -4001,7 +3989,7 @@
         <v>191</v>
       </c>
       <c r="C183" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="D183" t="s">
         <v>283</v>
@@ -4015,7 +4003,7 @@
         <v>200</v>
       </c>
       <c r="C184" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="D184" t="s">
         <v>283</v>
@@ -4029,7 +4017,7 @@
         <v>256</v>
       </c>
       <c r="C185" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="D185" t="s">
         <v>283</v>
@@ -4043,7 +4031,7 @@
         <v>16</v>
       </c>
       <c r="C186" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="D186" t="s">
         <v>283</v>
@@ -4057,7 +4045,7 @@
         <v>259</v>
       </c>
       <c r="C187" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="D187" t="s">
         <v>283</v>
@@ -4071,7 +4059,7 @@
         <v>234</v>
       </c>
       <c r="C188" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="D188" t="s">
         <v>283</v>
@@ -4085,10 +4073,10 @@
         <v>13</v>
       </c>
       <c r="C189" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="D189" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.3">
@@ -4099,10 +4087,10 @@
         <v>52</v>
       </c>
       <c r="C190" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="D190" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.3">
@@ -4113,10 +4101,10 @@
         <v>130</v>
       </c>
       <c r="C191" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="D191" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.3">
@@ -4127,10 +4115,10 @@
         <v>184</v>
       </c>
       <c r="C192" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="D192" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.3">
@@ -4141,10 +4129,10 @@
         <v>240</v>
       </c>
       <c r="C193" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="D193" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.3">
@@ -4155,10 +4143,10 @@
         <v>8</v>
       </c>
       <c r="C194" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="D194" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.3">
@@ -4169,10 +4157,10 @@
         <v>54</v>
       </c>
       <c r="C195" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="D195" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.3">
@@ -4183,7 +4171,7 @@
         <v>76</v>
       </c>
       <c r="C196" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="D196" t="s">
         <v>284</v>
@@ -4197,10 +4185,10 @@
         <v>83</v>
       </c>
       <c r="C197" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="D197" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.3">
@@ -4211,7 +4199,7 @@
         <v>100</v>
       </c>
       <c r="C198" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="D198" t="s">
         <v>284</v>
@@ -4225,10 +4213,10 @@
         <v>144</v>
       </c>
       <c r="C199" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="D199" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.3">
@@ -4239,10 +4227,10 @@
         <v>186</v>
       </c>
       <c r="C200" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="D200" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.3">
@@ -4253,7 +4241,7 @@
         <v>221</v>
       </c>
       <c r="C201" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="D201" t="s">
         <v>284</v>
@@ -4267,7 +4255,7 @@
         <v>272</v>
       </c>
       <c r="C202" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="D202" t="s">
         <v>284</v>
@@ -4281,10 +4269,10 @@
         <v>68</v>
       </c>
       <c r="C203" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="D203" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.3">
@@ -4295,10 +4283,10 @@
         <v>31</v>
       </c>
       <c r="C204" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="D204" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.3">
@@ -4309,10 +4297,10 @@
         <v>49</v>
       </c>
       <c r="C205" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="D205" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.3">
@@ -4323,10 +4311,10 @@
         <v>55</v>
       </c>
       <c r="C206" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="D206" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.3">
@@ -4337,10 +4325,10 @@
         <v>86</v>
       </c>
       <c r="C207" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="D207" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.3">
@@ -4351,10 +4339,10 @@
         <v>139</v>
       </c>
       <c r="C208" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="D208" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.3">
@@ -4365,10 +4353,10 @@
         <v>143</v>
       </c>
       <c r="C209" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="D209" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.3">
@@ -4379,7 +4367,7 @@
         <v>246</v>
       </c>
       <c r="C210" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="D210" t="s">
         <v>285</v>
@@ -4393,10 +4381,10 @@
         <v>252</v>
       </c>
       <c r="C211" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="D211" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.3">
@@ -4407,10 +4395,10 @@
         <v>255</v>
       </c>
       <c r="C212" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="D212" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.3">
@@ -4421,10 +4409,10 @@
         <v>266</v>
       </c>
       <c r="C213" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="D213" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.3">
@@ -4435,10 +4423,10 @@
         <v>20</v>
       </c>
       <c r="C214" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="D214" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.3">
@@ -4449,10 +4437,10 @@
         <v>67</v>
       </c>
       <c r="C215" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="D215" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.3">
@@ -4463,10 +4451,10 @@
         <v>123</v>
       </c>
       <c r="C216" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="D216" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.3">
@@ -4477,10 +4465,10 @@
         <v>169</v>
       </c>
       <c r="C217" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="D217" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.3">
@@ -4491,10 +4479,10 @@
         <v>220</v>
       </c>
       <c r="C218" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="D218" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.3">
@@ -4505,10 +4493,10 @@
         <v>267</v>
       </c>
       <c r="C219" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="D219" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.3">
@@ -4519,10 +4507,10 @@
         <v>58</v>
       </c>
       <c r="C220" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="D220" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.3">
@@ -4533,10 +4521,10 @@
         <v>70</v>
       </c>
       <c r="C221" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="D221" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.3">
@@ -4547,7 +4535,7 @@
         <v>71</v>
       </c>
       <c r="C222" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="D222" t="s">
         <v>284</v>
@@ -4561,10 +4549,10 @@
         <v>75</v>
       </c>
       <c r="C223" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="D223" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.3">
@@ -4575,7 +4563,7 @@
         <v>189</v>
       </c>
       <c r="C224" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="D224" t="s">
         <v>284</v>
@@ -4589,10 +4577,10 @@
         <v>222</v>
       </c>
       <c r="C225" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="D225" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.3">
@@ -4603,10 +4591,10 @@
         <v>275</v>
       </c>
       <c r="C226" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="D226" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.3">
@@ -4617,10 +4605,10 @@
         <v>2</v>
       </c>
       <c r="C227" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="D227" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.3">
@@ -4631,10 +4619,10 @@
         <v>3</v>
       </c>
       <c r="C228" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="D228" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.3">
@@ -4645,10 +4633,10 @@
         <v>4</v>
       </c>
       <c r="C229" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="D229" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.3">
@@ -4656,13 +4644,13 @@
         <v>44086</v>
       </c>
       <c r="B230" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="C230" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="D230" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.3">
@@ -4673,7 +4661,7 @@
         <v>158</v>
       </c>
       <c r="C231" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="D231" t="s">
         <v>285</v>
@@ -4684,13 +4672,13 @@
         <v>44088</v>
       </c>
       <c r="B232" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="C232" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="D232" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.3">
@@ -4701,7 +4689,7 @@
         <v>193</v>
       </c>
       <c r="C233" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="D233" t="s">
         <v>284</v>
@@ -4715,7 +4703,7 @@
         <v>209</v>
       </c>
       <c r="C234" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="D234" t="s">
         <v>284</v>
@@ -4729,7 +4717,7 @@
         <v>43</v>
       </c>
       <c r="C235" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="D235" t="s">
         <v>284</v>
@@ -4743,7 +4731,7 @@
         <v>127</v>
       </c>
       <c r="C236" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="D236" t="s">
         <v>284</v>
@@ -4757,7 +4745,7 @@
         <v>261</v>
       </c>
       <c r="C237" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="D237" t="s">
         <v>284</v>
@@ -4771,7 +4759,7 @@
         <v>108</v>
       </c>
       <c r="C238" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="D238" t="s">
         <v>284</v>
@@ -4785,7 +4773,7 @@
         <v>153</v>
       </c>
       <c r="C239" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="D239" t="s">
         <v>284</v>
@@ -4799,7 +4787,7 @@
         <v>165</v>
       </c>
       <c r="C240" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="D240" t="s">
         <v>284</v>
@@ -4813,7 +4801,7 @@
         <v>277</v>
       </c>
       <c r="C241" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="D241" t="s">
         <v>284</v>
@@ -4827,7 +4815,7 @@
         <v>5</v>
       </c>
       <c r="C242" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="D242" t="s">
         <v>284</v>
@@ -4841,7 +4829,7 @@
         <v>218</v>
       </c>
       <c r="C243" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="D243" t="s">
         <v>285</v>
@@ -4855,7 +4843,7 @@
         <v>223</v>
       </c>
       <c r="C244" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="D244" t="s">
         <v>285</v>
@@ -4869,7 +4857,7 @@
         <v>230</v>
       </c>
       <c r="C245" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="D245" t="s">
         <v>285</v>
@@ -4883,7 +4871,7 @@
         <v>231</v>
       </c>
       <c r="C246" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="D246" t="s">
         <v>285</v>
@@ -4897,7 +4885,7 @@
         <v>159</v>
       </c>
       <c r="C247" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="D247" t="s">
         <v>285</v>
@@ -4908,10 +4896,10 @@
         <v>46030</v>
       </c>
       <c r="B248" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="C248" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="D248" t="s">
         <v>285</v>
@@ -4925,10 +4913,10 @@
         <v>18</v>
       </c>
       <c r="C249" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="D249" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.3">
@@ -4939,10 +4927,10 @@
         <v>29</v>
       </c>
       <c r="C250" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="D250" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.3">
@@ -4953,10 +4941,10 @@
         <v>59</v>
       </c>
       <c r="C251" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="D251" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.3">
@@ -4967,10 +4955,10 @@
         <v>74</v>
       </c>
       <c r="C252" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="D252" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.3">
@@ -4981,10 +4969,10 @@
         <v>77</v>
       </c>
       <c r="C253" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="D253" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.3">
@@ -4995,10 +4983,10 @@
         <v>84</v>
       </c>
       <c r="C254" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="D254" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.3">
@@ -5009,10 +4997,10 @@
         <v>97</v>
       </c>
       <c r="C255" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="D255" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.3">
@@ -5023,10 +5011,10 @@
         <v>148</v>
       </c>
       <c r="C256" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="D256" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.3">
@@ -5037,10 +5025,10 @@
         <v>164</v>
       </c>
       <c r="C257" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="D257" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.3">
@@ -5051,10 +5039,10 @@
         <v>183</v>
       </c>
       <c r="C258" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="D258" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.3">
@@ -5065,10 +5053,10 @@
         <v>225</v>
       </c>
       <c r="C259" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="D259" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.3">
@@ -5079,10 +5067,10 @@
         <v>270</v>
       </c>
       <c r="C260" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="D260" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.3">
@@ -5093,10 +5081,10 @@
         <v>276</v>
       </c>
       <c r="C261" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="D261" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.3">
@@ -5107,10 +5095,10 @@
         <v>101</v>
       </c>
       <c r="C262" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="D262" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.3">
@@ -5118,13 +5106,13 @@
         <v>71071</v>
       </c>
       <c r="B263" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="C263" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="D263" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.3">
@@ -5135,10 +5123,10 @@
         <v>89</v>
       </c>
       <c r="C264" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="D264" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.3">
@@ -5149,10 +5137,10 @@
         <v>36</v>
       </c>
       <c r="C265" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="D265" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.3">
@@ -5163,10 +5151,10 @@
         <v>47</v>
       </c>
       <c r="C266" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="D266" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.3">
@@ -5177,10 +5165,10 @@
         <v>126</v>
       </c>
       <c r="C267" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="D267" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.3">
@@ -5191,10 +5179,10 @@
         <v>160</v>
       </c>
       <c r="C268" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="D268" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.3">
@@ -5205,10 +5193,10 @@
         <v>166</v>
       </c>
       <c r="C269" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="D269" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.3">
@@ -5219,10 +5207,10 @@
         <v>198</v>
       </c>
       <c r="C270" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="D270" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.3">
@@ -5233,10 +5221,10 @@
         <v>87</v>
       </c>
       <c r="C271" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="D271" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.3">
@@ -5247,10 +5235,10 @@
         <v>90</v>
       </c>
       <c r="C272" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="D272" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.3">
@@ -5261,10 +5249,10 @@
         <v>109</v>
       </c>
       <c r="C273" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="D273" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.3">
@@ -5275,10 +5263,10 @@
         <v>63</v>
       </c>
       <c r="C274" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="D274" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.3">
@@ -5289,10 +5277,10 @@
         <v>6</v>
       </c>
       <c r="C275" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="D275" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.3">
@@ -5303,10 +5291,10 @@
         <v>7</v>
       </c>
       <c r="C276" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="D276" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.3">
@@ -5317,10 +5305,10 @@
         <v>12</v>
       </c>
       <c r="C277" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="D277" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.3">
@@ -5331,10 +5319,10 @@
         <v>91</v>
       </c>
       <c r="C278" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="D278" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.3">
@@ -5345,10 +5333,10 @@
         <v>99</v>
       </c>
       <c r="C279" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="D279" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.3">
@@ -5359,10 +5347,10 @@
         <v>140</v>
       </c>
       <c r="C280" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="D280" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.3">
@@ -5373,10 +5361,10 @@
         <v>206</v>
       </c>
       <c r="C281" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="D281" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.3">
@@ -5387,10 +5375,10 @@
         <v>248</v>
       </c>
       <c r="C282" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="D282" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.3">
@@ -5401,10 +5389,10 @@
         <v>167</v>
       </c>
       <c r="C283" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="D283" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.3">
@@ -5415,10 +5403,10 @@
         <v>243</v>
       </c>
       <c r="C284" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="D284" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.3">
@@ -5426,13 +5414,13 @@
         <v>73110</v>
       </c>
       <c r="B285" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="C285" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="D285" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.3">
@@ -5440,13 +5428,13 @@
         <v>73111</v>
       </c>
       <c r="B286" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="C286" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="D286" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.3">
@@ -5454,40 +5442,26 @@
         <v>99991</v>
       </c>
       <c r="B287" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="C287" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="D287" t="s">
-        <v>291</v>
+        <v>338</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A288">
-        <v>99993</v>
+        <v>99999</v>
       </c>
       <c r="B288" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C288" t="s">
-        <v>288</v>
+        <v>330</v>
       </c>
       <c r="D288" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A289">
-        <v>99999</v>
-      </c>
-      <c r="B289" t="s">
-        <v>286</v>
-      </c>
-      <c r="C289" t="s">
-        <v>334</v>
-      </c>
-      <c r="D289" t="s">
         <v>286</v>
       </c>
     </row>
